--- a/Piglet/to copy/Test_piglet_input.xlsx
+++ b/Piglet/to copy/Test_piglet_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARUP\proj\piglet\0_Git_Repo\piglet_automation\Piglet\to copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Piglet\to copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA118E-7F1B-4E2F-A4F4-0CF03B271EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF8F73-8C31-48AC-9414-96FB7EE33005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11526" yWindow="6384" windowWidth="23232" windowHeight="13992" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni" sheetId="12" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
   <si>
     <t>Axial: Surface shear modulus, G(0)</t>
   </si>
@@ -2374,9 +2374,6 @@
     <t>NOTA: possibilità di aggiungere/diminuire il numero di load cases</t>
   </si>
   <si>
-    <t>SCENARIO</t>
-  </si>
-  <si>
     <t>1a) Dati slab</t>
   </si>
   <si>
@@ -2585,6 +2582,9 @@
   </si>
   <si>
     <t>- Pay attention to the number of options selected in the dropdown menu located in cell B1 of the "Ground Data" and "Piles Data" pages. Make sure you have chosen the correct number to avoid lengthening the analysis time with unnecessary iterations.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4585,87 +4585,87 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="125.75" customWidth="1"/>
+    <col min="1" max="1" width="125.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A3" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="68" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="68" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A10" s="69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="66" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="66" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="66" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4684,12 +4684,12 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>109</v>
       </c>
@@ -4697,10 +4697,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>110</v>
       </c>
@@ -4709,14 +4709,14 @@
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C5" s="43"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E7" s="40"/>
     </row>
   </sheetData>
@@ -4736,19 +4736,19 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.6171875" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="16.37890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="54">
         <v>3</v>
@@ -4764,12 +4764,12 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="70"/>
       <c r="F2" s="33"/>
@@ -4781,7 +4781,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
@@ -4872,30 +4872,30 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="D11" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D12" s="15" t="s">
         <v>0</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D13" s="15" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D16" s="15" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -4961,30 +4961,30 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
     </row>
-    <row r="18" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
     </row>
-    <row r="19" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" ht="15" x14ac:dyDescent="0.5">
       <c r="D20" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="70"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D21" s="15" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D22" s="15" t="s">
         <v>1</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D24" s="15" t="s">
         <v>3</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D25" s="15" t="s">
         <v>4</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" ht="15.3" x14ac:dyDescent="0.5">
       <c r="D26" s="15" t="s">
         <v>5</v>
       </c>
@@ -5050,30 +5050,30 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" ht="14.1" x14ac:dyDescent="0.5">
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" ht="15" x14ac:dyDescent="0.5">
       <c r="D29" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="4:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:8" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D30" s="15" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:8" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D31" s="15" t="s">
         <v>1</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:8" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D34" s="15" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D35" s="15" t="s">
         <v>5</v>
       </c>
@@ -5121,13 +5121,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D38" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="70"/>
     </row>
-    <row r="39" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D39" s="15" t="s">
         <v>0</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="40" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D40" s="15" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D42" s="15" t="s">
         <v>3</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="43" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D43" s="15" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="44" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D44" s="15" t="s">
         <v>5</v>
       </c>
@@ -5175,13 +5175,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D47" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="70"/>
     </row>
-    <row r="48" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D48" s="15" t="s">
         <v>0</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D49" s="15" t="s">
         <v>1</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D50" s="15" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="51" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D51" s="15" t="s">
         <v>3</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="52" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D52" s="15" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="53" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D53" s="15" t="s">
         <v>5</v>
       </c>
@@ -5229,13 +5229,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D56" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="70"/>
     </row>
-    <row r="57" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D57" s="15" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="58" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D58" s="15" t="s">
         <v>1</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="59" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D59" s="15" t="s">
         <v>2</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="60" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D60" s="15" t="s">
         <v>3</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="61" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D61" s="15" t="s">
         <v>4</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="62" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D62" s="15" t="s">
         <v>5</v>
       </c>
@@ -5283,13 +5283,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D65" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="70"/>
     </row>
-    <row r="66" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D66" s="15" t="s">
         <v>0</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="67" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D67" s="15" t="s">
         <v>1</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="68" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D68" s="15" t="s">
         <v>2</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="69" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D69" s="15" t="s">
         <v>3</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="70" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D70" s="15" t="s">
         <v>4</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="71" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D71" s="15" t="s">
         <v>5</v>
       </c>
@@ -5337,13 +5337,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D74" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" s="70"/>
     </row>
-    <row r="75" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D75" s="15" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="76" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D76" s="15" t="s">
         <v>1</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="77" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D77" s="15" t="s">
         <v>2</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="78" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="79" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D79" s="15" t="s">
         <v>4</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="80" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D80" s="15" t="s">
         <v>5</v>
       </c>
@@ -5391,13 +5391,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" ht="15" x14ac:dyDescent="0.5">
       <c r="D83" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E83" s="70"/>
     </row>
-    <row r="84" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D84" s="15" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>52840.909090909088</v>
       </c>
     </row>
-    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D85" s="15" t="s">
         <v>1</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>5816.6011619958981</v>
       </c>
     </row>
-    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D86" s="15" t="s">
         <v>2</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>169172.93233082705</v>
       </c>
     </row>
-    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D87" s="15" t="s">
         <v>3</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>59402.593678450678</v>
       </c>
     </row>
-    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>758.5017716820505</v>
       </c>
     </row>
-    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D89" s="15" t="s">
         <v>5</v>
       </c>
@@ -5559,97 +5559,97 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="8.625"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.37890625" customWidth="1"/>
+    <col min="3" max="3" width="8.6171875"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.37890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.125" customWidth="1"/>
-    <col min="19" max="19" width="9.125" customWidth="1"/>
-    <col min="20" max="20" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.37890625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.47265625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="9" customWidth="1"/>
-    <col min="55" max="55" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="9" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.875" customWidth="1"/>
-    <col min="83" max="83" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.85546875" customWidth="1"/>
+    <col min="83" max="83" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="9" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="9" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="9" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="6.875" customWidth="1"/>
-    <col min="125" max="125" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="6.85546875" customWidth="1"/>
+    <col min="125" max="125" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="9" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="135" max="136" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="35.37890625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.6171875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11.37890625" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="9" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:144" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:144" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2"/>
       <c r="D2" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="71"/>
       <c r="F2" s="71"/>
@@ -5666,7 +5666,7 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="71"/>
       <c r="T2" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U2" s="71"/>
       <c r="V2" s="71"/>
@@ -5682,7 +5682,7 @@
       <c r="AF2" s="71"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="71"/>
       <c r="AJ2" s="71"/>
@@ -5697,7 +5697,7 @@
       <c r="AS2" s="71"/>
       <c r="AT2" s="71"/>
       <c r="AV2" s="71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AW2" s="71"/>
       <c r="AX2" s="71"/>
@@ -5712,7 +5712,7 @@
       <c r="BG2" s="71"/>
       <c r="BH2" s="71"/>
       <c r="BJ2" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BK2" s="71"/>
       <c r="BL2" s="71"/>
@@ -5727,7 +5727,7 @@
       <c r="BU2" s="71"/>
       <c r="BV2" s="71"/>
       <c r="BX2" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BY2" s="71"/>
       <c r="BZ2" s="71"/>
@@ -5742,7 +5742,7 @@
       <c r="CI2" s="71"/>
       <c r="CJ2" s="71"/>
       <c r="CL2" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CM2" s="71"/>
       <c r="CN2" s="71"/>
@@ -5757,7 +5757,7 @@
       <c r="CW2" s="71"/>
       <c r="CX2" s="71"/>
       <c r="CZ2" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DA2" s="71"/>
       <c r="DB2" s="71"/>
@@ -5772,7 +5772,7 @@
       <c r="DK2" s="71"/>
       <c r="DL2" s="71"/>
       <c r="DN2" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DO2" s="71"/>
       <c r="DP2" s="71"/>
@@ -5787,7 +5787,7 @@
       <c r="DY2" s="71"/>
       <c r="DZ2" s="71"/>
       <c r="EB2" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EC2" s="71"/>
       <c r="ED2" s="71"/>
@@ -5802,45 +5802,45 @@
       <c r="EM2" s="71"/>
       <c r="EN2" s="71"/>
     </row>
-    <row r="3" spans="1:144" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:144" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="72" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AV3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BJ3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BX3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CL3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CZ3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EB3" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:144" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:144" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="72"/>
     </row>
-    <row r="5" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A5" s="72"/>
       <c r="D5" s="42" t="s">
         <v>81</v>
@@ -5953,7 +5953,7 @@
       <c r="EG5" s="32"/>
       <c r="EH5" s="32"/>
     </row>
-    <row r="7" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -6166,7 +6166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D8" s="26" t="s">
         <v>105</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>97</v>
@@ -6221,7 +6221,7 @@
         <v>7</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z8" s="26" t="s">
         <v>97</v>
@@ -6258,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="AM8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN8" s="26" t="s">
         <v>97</v>
@@ -6295,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="BA8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB8" s="26" t="s">
         <v>97</v>
@@ -6332,7 +6332,7 @@
         <v>7</v>
       </c>
       <c r="BO8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BP8" s="26" t="s">
         <v>97</v>
@@ -6369,7 +6369,7 @@
         <v>7</v>
       </c>
       <c r="CC8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CD8" s="26" t="s">
         <v>97</v>
@@ -6406,7 +6406,7 @@
         <v>7</v>
       </c>
       <c r="CQ8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CR8" s="26" t="s">
         <v>97</v>
@@ -6443,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="DE8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DF8" s="26" t="s">
         <v>97</v>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="DS8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DT8" s="26" t="s">
         <v>97</v>
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="EG8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EH8" s="26" t="s">
         <v>97</v>
@@ -6539,7 +6539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D9" s="47">
         <v>1</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D10" s="47">
         <v>2</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D11" s="47">
         <v>3</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D12" s="47">
         <v>4</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:144" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" ht="15.3" x14ac:dyDescent="0.6">
       <c r="D13" s="47">
         <v>5</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:144" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:144" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D14" s="47">
         <v>6</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:144" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:144" ht="15" x14ac:dyDescent="0.45">
       <c r="D15" s="47">
         <v>7</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="EK15" s="39"/>
     </row>
-    <row r="16" spans="1:144" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:144" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D16" s="47">
         <v>8</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:143" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D17" s="47">
         <v>9</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:143" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D18" s="47">
         <v>10</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:143" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D19" s="47">
         <v>11</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:143" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D20" s="47">
         <v>12</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:143" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -10784,7 +10784,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="P21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="49">
         <v>2</v>
@@ -10799,61 +10799,61 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
       <c r="AD21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE21" s="49">
         <v>2</v>
       </c>
       <c r="AR21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS21" s="49">
         <v>2</v>
       </c>
       <c r="BF21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BG21" s="49">
         <v>2</v>
       </c>
       <c r="BT21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BU21" s="49">
         <v>2</v>
       </c>
       <c r="CH21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CI21" s="49">
         <v>2</v>
       </c>
       <c r="CV21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CW21" s="49">
         <v>2</v>
       </c>
       <c r="DJ21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DK21" s="49">
         <v>2</v>
       </c>
       <c r="DX21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DY21" s="49">
         <v>2</v>
       </c>
       <c r="EL21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="EM21" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:143" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:143" ht="15.3" x14ac:dyDescent="0.5">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -10861,7 +10861,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="32"/>
       <c r="P22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="49">
         <v>2</v>
@@ -10876,61 +10876,61 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
       <c r="AD22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE22" s="49">
         <v>2</v>
       </c>
       <c r="AR22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS22" s="49">
         <v>2</v>
       </c>
       <c r="BF22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BG22" s="49">
         <v>2</v>
       </c>
       <c r="BT22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU22" s="49">
         <v>2</v>
       </c>
       <c r="CH22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CI22" s="49">
         <v>2</v>
       </c>
       <c r="CV22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CW22" s="49">
         <v>2</v>
       </c>
       <c r="DJ22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DK22" s="49">
         <v>2</v>
       </c>
       <c r="DX22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DY22" s="49">
         <v>2</v>
       </c>
       <c r="EL22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="EM22" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:143" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:143" ht="15" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -10947,7 +10947,7 @@
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="4:143" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:143" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -10955,7 +10955,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="4:143" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:143" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
     </row>
   </sheetData>
@@ -11069,112 +11069,112 @@
   </sheetPr>
   <dimension ref="A1:EP206"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.625" style="5"/>
-    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="5"/>
-    <col min="9" max="9" width="10.5" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.625" style="5"/>
-    <col min="12" max="12" width="18.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="5"/>
-    <col min="16" max="21" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="8.75" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.75" customWidth="1"/>
-    <col min="27" max="33" width="8.75" style="5" customWidth="1"/>
-    <col min="34" max="34" width="8.75" style="7" customWidth="1"/>
-    <col min="35" max="35" width="8.625" style="5"/>
-    <col min="36" max="36" width="8.625" style="5" customWidth="1"/>
-    <col min="37" max="37" width="14.625" style="5" customWidth="1"/>
-    <col min="38" max="38" width="8.75" style="5" customWidth="1"/>
-    <col min="39" max="40" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.625" style="5"/>
-    <col min="42" max="42" width="11.125" customWidth="1"/>
-    <col min="43" max="44" width="8.625" style="5"/>
-    <col min="45" max="45" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.625" style="5"/>
-    <col min="48" max="49" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.625" style="5"/>
-    <col min="51" max="56" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="8.75" customWidth="1"/>
-    <col min="59" max="61" width="8.75" style="5" customWidth="1"/>
-    <col min="62" max="62" width="8.75" customWidth="1"/>
-    <col min="63" max="69" width="8.75" style="5" customWidth="1"/>
-    <col min="70" max="70" width="8.75" style="7" customWidth="1"/>
-    <col min="71" max="71" width="8.625" style="5"/>
-    <col min="72" max="72" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.125" style="5" customWidth="1"/>
-    <col min="74" max="74" width="11.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.625" style="5"/>
-    <col min="80" max="81" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="8.75" style="5" customWidth="1"/>
-    <col min="85" max="85" width="8.625" style="6"/>
-    <col min="86" max="86" width="8.625" style="5"/>
-    <col min="87" max="87" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.125" style="5" customWidth="1"/>
-    <col min="89" max="89" width="11.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.625" style="5" customWidth="1"/>
-    <col min="91" max="91" width="11.375" style="5" customWidth="1"/>
-    <col min="92" max="92" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.375" style="5" customWidth="1"/>
-    <col min="94" max="100" width="8.75" style="5" customWidth="1"/>
-    <col min="101" max="101" width="11.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6171875" style="5"/>
+    <col min="4" max="4" width="16.47265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.76171875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6171875" style="5"/>
+    <col min="9" max="9" width="10.47265625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.6171875" style="5"/>
+    <col min="12" max="12" width="18.76171875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.76171875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.6171875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.6171875" style="5"/>
+    <col min="16" max="21" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="8.76171875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.76171875" customWidth="1"/>
+    <col min="27" max="33" width="8.76171875" style="5" customWidth="1"/>
+    <col min="34" max="34" width="8.76171875" style="7" customWidth="1"/>
+    <col min="35" max="35" width="8.6171875" style="5"/>
+    <col min="36" max="36" width="8.6171875" style="5" customWidth="1"/>
+    <col min="37" max="37" width="14.6171875" style="5" customWidth="1"/>
+    <col min="38" max="38" width="8.76171875" style="5" customWidth="1"/>
+    <col min="39" max="40" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6171875" style="5"/>
+    <col min="42" max="42" width="11.140625" customWidth="1"/>
+    <col min="43" max="44" width="8.6171875" style="5"/>
+    <col min="45" max="45" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.6171875" style="5"/>
+    <col min="48" max="49" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.6171875" style="5"/>
+    <col min="51" max="56" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="8.76171875" customWidth="1"/>
+    <col min="59" max="61" width="8.76171875" style="5" customWidth="1"/>
+    <col min="62" max="62" width="8.76171875" customWidth="1"/>
+    <col min="63" max="69" width="8.76171875" style="5" customWidth="1"/>
+    <col min="70" max="70" width="8.76171875" style="7" customWidth="1"/>
+    <col min="71" max="71" width="8.6171875" style="5"/>
+    <col min="72" max="72" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" style="5" customWidth="1"/>
+    <col min="74" max="74" width="11.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.6171875" style="5"/>
+    <col min="80" max="81" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.6171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="8.76171875" style="5" customWidth="1"/>
+    <col min="85" max="85" width="8.6171875" style="6"/>
+    <col min="86" max="86" width="8.6171875" style="5"/>
+    <col min="87" max="87" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.140625" style="5" customWidth="1"/>
+    <col min="89" max="89" width="11.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.6171875" style="5" customWidth="1"/>
+    <col min="91" max="91" width="11.37890625" style="5" customWidth="1"/>
+    <col min="92" max="92" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.37890625" style="5" customWidth="1"/>
+    <col min="94" max="100" width="8.76171875" style="5" customWidth="1"/>
+    <col min="101" max="101" width="11.140625" style="5" customWidth="1"/>
     <col min="102" max="102" width="11" style="5" customWidth="1"/>
-    <col min="103" max="103" width="11.75" style="5" customWidth="1"/>
-    <col min="104" max="104" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="8.75" style="5" customWidth="1"/>
-    <col min="108" max="108" width="8.625" style="6"/>
-    <col min="109" max="109" width="8.625" style="5"/>
-    <col min="110" max="110" width="16.625" style="5" customWidth="1"/>
-    <col min="111" max="111" width="16.125" style="5" customWidth="1"/>
-    <col min="112" max="112" width="11.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12.125" style="5" customWidth="1"/>
-    <col min="114" max="115" width="11.375" style="5" customWidth="1"/>
-    <col min="116" max="116" width="16.125" style="5" customWidth="1"/>
-    <col min="117" max="117" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12.75" style="5" customWidth="1"/>
-    <col min="119" max="119" width="14.125" style="5" customWidth="1"/>
-    <col min="120" max="120" width="12.375" style="5" customWidth="1"/>
-    <col min="121" max="121" width="13.625" style="5" customWidth="1"/>
-    <col min="122" max="122" width="8.625" style="5"/>
-    <col min="123" max="123" width="8.625" style="37"/>
-    <col min="124" max="124" width="16.875" style="5" customWidth="1"/>
-    <col min="125" max="125" width="14.625" style="5" customWidth="1"/>
-    <col min="126" max="128" width="8.625" style="5"/>
-    <col min="129" max="130" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.75" style="5" customWidth="1"/>
-    <col min="133" max="16384" width="8.625" style="5"/>
+    <col min="103" max="103" width="11.76171875" style="5" customWidth="1"/>
+    <col min="104" max="104" width="8.76171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.6171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="8.76171875" style="5" customWidth="1"/>
+    <col min="108" max="108" width="8.6171875" style="6"/>
+    <col min="109" max="109" width="8.6171875" style="5"/>
+    <col min="110" max="110" width="16.6171875" style="5" customWidth="1"/>
+    <col min="111" max="111" width="16.140625" style="5" customWidth="1"/>
+    <col min="112" max="112" width="11.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.140625" style="5" customWidth="1"/>
+    <col min="114" max="115" width="11.37890625" style="5" customWidth="1"/>
+    <col min="116" max="116" width="16.140625" style="5" customWidth="1"/>
+    <col min="117" max="117" width="14.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.76171875" style="5" customWidth="1"/>
+    <col min="119" max="119" width="14.140625" style="5" customWidth="1"/>
+    <col min="120" max="120" width="12.37890625" style="5" customWidth="1"/>
+    <col min="121" max="121" width="13.6171875" style="5" customWidth="1"/>
+    <col min="122" max="122" width="8.6171875" style="5"/>
+    <col min="123" max="123" width="8.6171875" style="37"/>
+    <col min="124" max="124" width="16.85546875" style="5" customWidth="1"/>
+    <col min="125" max="125" width="14.6171875" style="5" customWidth="1"/>
+    <col min="126" max="128" width="8.6171875" style="5"/>
+    <col min="129" max="130" width="10.37890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.6171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.76171875" style="5" customWidth="1"/>
+    <col min="133" max="16384" width="8.6171875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="48">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="D1" s="29"/>
       <c r="O1" s="29"/>
       <c r="AK1" s="29"/>
       <c r="AX1" s="29"/>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.45">
       <c r="D2" s="19" t="s">
         <v>69</v>
       </c>
@@ -11194,13 +11194,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.45">
       <c r="CG3" s="31"/>
       <c r="DD3" s="31"/>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.45">
       <c r="D4" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>65</v>
@@ -11240,7 +11240,7 @@
       <c r="DV4"/>
       <c r="DW4"/>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.45">
       <c r="D5" s="20"/>
       <c r="K5" s="30"/>
       <c r="M5" s="30"/>
@@ -11269,7 +11269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.45">
       <c r="D6" s="19" t="s">
         <v>59</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK6" s="19" t="s">
         <v>59</v>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="CB6" s="29"/>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
@@ -11362,13 +11362,13 @@
       <c r="DJ7" s="28"/>
       <c r="DK7" s="28"/>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.45">
       <c r="L8" s="44" t="s">
         <v>113</v>
       </c>
       <c r="BT8" s="20"/>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.45">
       <c r="N9" s="19"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -11417,7 +11417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
@@ -11605,13 +11605,13 @@
         <v>47</v>
       </c>
       <c r="CQ10" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CR10" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CS10" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CT10" s="15" t="s">
         <v>49</v>
@@ -11705,7 +11705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D11" s="26" t="s">
         <v>41</v>
       </c>
@@ -11716,13 +11716,13 @@
         <v>38</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -11777,13 +11777,13 @@
         <v>38</v>
       </c>
       <c r="AN11" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO11" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ11" s="15" t="s">
         <v>37</v>
@@ -11878,25 +11878,25 @@
         <v>34</v>
       </c>
       <c r="CQ11" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CR11" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CT11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="CU11" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CV11" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CW11" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CX11" s="24" t="s">
         <v>16</v>
@@ -11963,7 +11963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D12" s="16" t="s">
         <v>98</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>28</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" s="45">
         <v>-6886.95</v>
@@ -12013,7 +12013,7 @@
         <v>42.06</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X12" s="45" t="s">
         <v>24</v>
@@ -12373,7 +12373,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.45">
       <c r="L13" s="45">
         <v>2</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>28</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P13" s="45">
         <v>-11767.56</v>
@@ -12405,7 +12405,7 @@
         <v>0.2</v>
       </c>
       <c r="W13" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X13" s="45" t="s">
         <v>10</v>
@@ -12690,7 +12690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.45">
       <c r="L14" s="45">
         <v>3</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>28</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P14" s="45">
         <v>-6886.95</v>
@@ -12722,7 +12722,7 @@
         <v>-41.65</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X14" s="45" t="s">
         <v>24</v>
@@ -13013,7 +13013,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="L15" s="45">
         <v>4</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>28</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P15" s="45">
         <v>-6886.95</v>
@@ -13045,7 +13045,7 @@
         <v>42.06</v>
       </c>
       <c r="W15" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X15" s="45" t="s">
         <v>24</v>
@@ -13372,7 +13372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="L16" s="45">
         <v>5</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P16" s="45">
         <v>-6886.95</v>
@@ -13404,7 +13404,7 @@
         <v>-41.65</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X16" s="45" t="s">
         <v>24</v>
@@ -13733,7 +13733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:132" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -13751,7 +13751,7 @@
         <v>28</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P17" s="45">
         <v>-6886.95</v>
@@ -13772,7 +13772,7 @@
         <v>42.06</v>
       </c>
       <c r="W17" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X17" s="45" t="s">
         <v>24</v>
@@ -14110,7 +14110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D18" s="19" t="s">
         <v>23</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>28</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P18" s="45">
         <v>-6886.95</v>
@@ -14151,7 +14151,7 @@
         <v>42.06</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X18" s="45" t="s">
         <v>24</v>
@@ -14457,7 +14457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -14475,7 +14475,7 @@
         <v>28</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P19" s="45">
         <v>-6886.95</v>
@@ -14496,7 +14496,7 @@
         <v>-41.65</v>
       </c>
       <c r="W19" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X19" s="45" t="s">
         <v>24</v>
@@ -14786,7 +14786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D20" s="19" t="s">
         <v>21</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>28</v>
       </c>
       <c r="O20" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20" s="45">
         <v>-6886.95</v>
@@ -14827,7 +14827,7 @@
         <v>122.85</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" s="45" t="s">
         <v>24</v>
@@ -15122,7 +15122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:132" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D21" s="15" t="s">
         <v>19</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>28</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P21" s="45">
         <v>-6886.95</v>
@@ -15165,7 +15165,7 @@
         <v>-122.44</v>
       </c>
       <c r="W21" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X21" s="45" t="s">
         <v>24</v>
@@ -15481,7 +15481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:132" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
@@ -15497,13 +15497,13 @@
         <v>11</v>
       </c>
       <c r="M22" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N22" s="45">
         <v>28</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P22" s="45">
         <v>-6886.95</v>
@@ -15524,7 +15524,7 @@
         <v>-122.44</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X22" s="45" t="s">
         <v>24</v>
@@ -15844,9 +15844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:132" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="57">
         <v>1.3</v>
@@ -15860,13 +15860,13 @@
         <v>12</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N23" s="45">
         <v>28</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P23" s="45">
         <v>-6886.95</v>
@@ -15887,13 +15887,13 @@
         <v>-122.44</v>
       </c>
       <c r="W23" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X23" s="45" t="s">
         <v>24</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL23" s="14">
         <f t="shared" si="68"/>
@@ -16209,9 +16209,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="56">
         <v>1</v>
@@ -16223,7 +16223,7 @@
       <c r="J24" s="8"/>
       <c r="Z24" s="5"/>
       <c r="AK24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL24" s="14">
         <f t="shared" si="68"/>
@@ -16235,9 +16235,9 @@
       <c r="BE24" s="5"/>
       <c r="BJ24" s="5"/>
     </row>
-    <row r="25" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D25" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="56">
         <v>1.5</v>
@@ -16249,7 +16249,7 @@
       <c r="J25" s="8"/>
       <c r="Z25" s="5"/>
       <c r="AK25" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL25" s="14">
         <f t="shared" si="68"/>
@@ -16261,9 +16261,9 @@
       <c r="BE25" s="5"/>
       <c r="BJ25" s="5"/>
     </row>
-    <row r="26" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="56">
         <v>1</v>
@@ -16275,7 +16275,7 @@
       <c r="J26" s="8"/>
       <c r="Z26" s="5"/>
       <c r="AK26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL26" s="14">
         <f t="shared" si="68"/>
@@ -16288,7 +16288,7 @@
       <c r="BJ26" s="5"/>
       <c r="DW26" s="38"/>
     </row>
-    <row r="27" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D27" s="15" t="s">
         <v>9</v>
       </c>
@@ -16314,7 +16314,7 @@
       <c r="BE27" s="5"/>
       <c r="BJ27" s="5"/>
     </row>
-    <row r="28" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -16331,7 +16331,7 @@
       <c r="BE28" s="5"/>
       <c r="BJ28" s="5"/>
     </row>
-    <row r="29" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -16348,7 +16348,7 @@
       <c r="BE29" s="5"/>
       <c r="BJ29" s="5"/>
     </row>
-    <row r="30" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -16365,7 +16365,7 @@
       <c r="BE30" s="5"/>
       <c r="BJ30" s="5"/>
     </row>
-    <row r="31" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -16382,7 +16382,7 @@
       <c r="BE31" s="5"/>
       <c r="BJ31" s="5"/>
     </row>
-    <row r="32" spans="4:132" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -16399,7 +16399,7 @@
       <c r="BE32" s="5"/>
       <c r="BJ32" s="5"/>
     </row>
-    <row r="33" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -16413,7 +16413,7 @@
       <c r="BE33" s="5"/>
       <c r="BJ33" s="5"/>
     </row>
-    <row r="34" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -16427,7 +16427,7 @@
       <c r="BE34" s="5"/>
       <c r="BJ34" s="5"/>
     </row>
-    <row r="35" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -16441,7 +16441,7 @@
       <c r="BE35" s="5"/>
       <c r="BJ35" s="5"/>
     </row>
-    <row r="36" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -16455,7 +16455,7 @@
       <c r="BE36" s="5"/>
       <c r="BJ36" s="5"/>
     </row>
-    <row r="37" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16469,7 +16469,7 @@
       <c r="BE37" s="5"/>
       <c r="BJ37" s="5"/>
     </row>
-    <row r="38" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:62" x14ac:dyDescent="0.45">
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -16483,7 +16483,7 @@
       <c r="BE38" s="5"/>
       <c r="BJ38" s="5"/>
     </row>
-    <row r="39" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -16500,7 +16500,7 @@
       <c r="BE39" s="5"/>
       <c r="BJ39" s="5"/>
     </row>
-    <row r="40" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -16517,7 +16517,7 @@
       <c r="BE40" s="5"/>
       <c r="BJ40" s="5"/>
     </row>
-    <row r="41" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -16534,7 +16534,7 @@
       <c r="BE41" s="5"/>
       <c r="BJ41" s="5"/>
     </row>
-    <row r="42" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -16551,7 +16551,7 @@
       <c r="BE42" s="5"/>
       <c r="BJ42" s="5"/>
     </row>
-    <row r="43" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -16568,7 +16568,7 @@
       <c r="BE43" s="5"/>
       <c r="BJ43" s="5"/>
     </row>
-    <row r="44" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -16585,7 +16585,7 @@
       <c r="BE44" s="5"/>
       <c r="BJ44" s="5"/>
     </row>
-    <row r="45" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -16602,7 +16602,7 @@
       <c r="BE45" s="5"/>
       <c r="BJ45" s="5"/>
     </row>
-    <row r="46" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -16619,7 +16619,7 @@
       <c r="BE46" s="5"/>
       <c r="BJ46" s="5"/>
     </row>
-    <row r="47" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -16636,7 +16636,7 @@
       <c r="BE47" s="5"/>
       <c r="BJ47" s="5"/>
     </row>
-    <row r="48" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -16653,7 +16653,7 @@
       <c r="BE48" s="5"/>
       <c r="BJ48" s="5"/>
     </row>
-    <row r="49" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -16670,7 +16670,7 @@
       <c r="BE49" s="5"/>
       <c r="BJ49" s="5"/>
     </row>
-    <row r="50" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -16687,7 +16687,7 @@
       <c r="BE50" s="5"/>
       <c r="BJ50" s="5"/>
     </row>
-    <row r="51" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -16704,7 +16704,7 @@
       <c r="BE51" s="5"/>
       <c r="BJ51" s="5"/>
     </row>
-    <row r="52" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -16721,7 +16721,7 @@
       <c r="BE52" s="5"/>
       <c r="BJ52" s="5"/>
     </row>
-    <row r="53" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -16738,7 +16738,7 @@
       <c r="BE53" s="5"/>
       <c r="BJ53" s="5"/>
     </row>
-    <row r="54" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -16755,7 +16755,7 @@
       <c r="BE54" s="5"/>
       <c r="BJ54" s="5"/>
     </row>
-    <row r="55" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -16772,7 +16772,7 @@
       <c r="BE55" s="5"/>
       <c r="BJ55" s="5"/>
     </row>
-    <row r="56" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -16789,7 +16789,7 @@
       <c r="BE56" s="5"/>
       <c r="BJ56" s="5"/>
     </row>
-    <row r="57" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -16806,7 +16806,7 @@
       <c r="BE57" s="5"/>
       <c r="BJ57" s="5"/>
     </row>
-    <row r="58" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -16823,7 +16823,7 @@
       <c r="BE58" s="5"/>
       <c r="BJ58" s="5"/>
     </row>
-    <row r="59" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -16840,7 +16840,7 @@
       <c r="BE59" s="5"/>
       <c r="BJ59" s="5"/>
     </row>
-    <row r="60" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -16857,7 +16857,7 @@
       <c r="BE60" s="5"/>
       <c r="BJ60" s="5"/>
     </row>
-    <row r="61" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -16874,7 +16874,7 @@
       <c r="BE61" s="5"/>
       <c r="BJ61" s="5"/>
     </row>
-    <row r="62" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -16891,7 +16891,7 @@
       <c r="BE62" s="5"/>
       <c r="BJ62" s="5"/>
     </row>
-    <row r="63" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -16908,7 +16908,7 @@
       <c r="BE63" s="5"/>
       <c r="BJ63" s="5"/>
     </row>
-    <row r="64" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -16925,7 +16925,7 @@
       <c r="BE64" s="5"/>
       <c r="BJ64" s="5"/>
     </row>
-    <row r="65" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -16942,7 +16942,7 @@
       <c r="BE65" s="5"/>
       <c r="BJ65" s="5"/>
     </row>
-    <row r="66" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -16959,7 +16959,7 @@
       <c r="BE66" s="5"/>
       <c r="BJ66" s="5"/>
     </row>
-    <row r="67" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -16976,7 +16976,7 @@
       <c r="BE67" s="5"/>
       <c r="BJ67" s="5"/>
     </row>
-    <row r="68" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -16993,7 +16993,7 @@
       <c r="BE68" s="5"/>
       <c r="BJ68" s="5"/>
     </row>
-    <row r="69" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -17010,7 +17010,7 @@
       <c r="BE69" s="5"/>
       <c r="BJ69" s="5"/>
     </row>
-    <row r="70" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -17027,7 +17027,7 @@
       <c r="BE70" s="5"/>
       <c r="BJ70" s="5"/>
     </row>
-    <row r="71" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -17044,7 +17044,7 @@
       <c r="BE71" s="5"/>
       <c r="BJ71" s="5"/>
     </row>
-    <row r="72" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -17061,7 +17061,7 @@
       <c r="BE72" s="5"/>
       <c r="BJ72" s="5"/>
     </row>
-    <row r="73" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -17078,7 +17078,7 @@
       <c r="BE73" s="5"/>
       <c r="BJ73" s="5"/>
     </row>
-    <row r="74" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -17095,7 +17095,7 @@
       <c r="BE74" s="5"/>
       <c r="BJ74" s="5"/>
     </row>
-    <row r="75" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -17112,7 +17112,7 @@
       <c r="BE75" s="5"/>
       <c r="BJ75" s="5"/>
     </row>
-    <row r="76" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -17129,7 +17129,7 @@
       <c r="BE76" s="5"/>
       <c r="BJ76" s="5"/>
     </row>
-    <row r="77" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -17146,7 +17146,7 @@
       <c r="BE77" s="5"/>
       <c r="BJ77" s="5"/>
     </row>
-    <row r="78" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -17163,7 +17163,7 @@
       <c r="BE78" s="5"/>
       <c r="BJ78" s="5"/>
     </row>
-    <row r="79" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -17180,7 +17180,7 @@
       <c r="BE79" s="5"/>
       <c r="BJ79" s="5"/>
     </row>
-    <row r="80" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -17197,7 +17197,7 @@
       <c r="BE80" s="5"/>
       <c r="BJ80" s="5"/>
     </row>
-    <row r="81" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -17214,7 +17214,7 @@
       <c r="BE81" s="5"/>
       <c r="BJ81" s="5"/>
     </row>
-    <row r="82" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -17231,7 +17231,7 @@
       <c r="BE82" s="5"/>
       <c r="BJ82" s="5"/>
     </row>
-    <row r="83" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -17248,7 +17248,7 @@
       <c r="BE83" s="5"/>
       <c r="BJ83" s="5"/>
     </row>
-    <row r="84" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -17265,7 +17265,7 @@
       <c r="BE84" s="5"/>
       <c r="BJ84" s="5"/>
     </row>
-    <row r="85" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -17282,7 +17282,7 @@
       <c r="BE85" s="5"/>
       <c r="BJ85" s="5"/>
     </row>
-    <row r="86" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -17299,7 +17299,7 @@
       <c r="BE86" s="5"/>
       <c r="BJ86" s="5"/>
     </row>
-    <row r="87" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -17316,7 +17316,7 @@
       <c r="BE87" s="5"/>
       <c r="BJ87" s="5"/>
     </row>
-    <row r="88" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -17333,7 +17333,7 @@
       <c r="BE88" s="5"/>
       <c r="BJ88" s="5"/>
     </row>
-    <row r="89" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -17350,7 +17350,7 @@
       <c r="BE89" s="5"/>
       <c r="BJ89" s="5"/>
     </row>
-    <row r="90" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -17367,7 +17367,7 @@
       <c r="BE90" s="5"/>
       <c r="BJ90" s="5"/>
     </row>
-    <row r="91" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -17384,7 +17384,7 @@
       <c r="BE91" s="5"/>
       <c r="BJ91" s="5"/>
     </row>
-    <row r="92" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -17401,7 +17401,7 @@
       <c r="BE92" s="5"/>
       <c r="BJ92" s="5"/>
     </row>
-    <row r="93" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -17418,7 +17418,7 @@
       <c r="BE93" s="5"/>
       <c r="BJ93" s="5"/>
     </row>
-    <row r="94" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -17435,7 +17435,7 @@
       <c r="BE94" s="5"/>
       <c r="BJ94" s="5"/>
     </row>
-    <row r="95" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -17452,7 +17452,7 @@
       <c r="BE95" s="5"/>
       <c r="BJ95" s="5"/>
     </row>
-    <row r="96" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -17469,7 +17469,7 @@
       <c r="BE96" s="5"/>
       <c r="BJ96" s="5"/>
     </row>
-    <row r="97" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -17486,7 +17486,7 @@
       <c r="BE97" s="5"/>
       <c r="BJ97" s="5"/>
     </row>
-    <row r="98" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -17503,7 +17503,7 @@
       <c r="BE98" s="5"/>
       <c r="BJ98" s="5"/>
     </row>
-    <row r="99" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -17520,7 +17520,7 @@
       <c r="BE99" s="5"/>
       <c r="BJ99" s="5"/>
     </row>
-    <row r="100" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -17537,7 +17537,7 @@
       <c r="BE100" s="5"/>
       <c r="BJ100" s="5"/>
     </row>
-    <row r="101" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -17554,7 +17554,7 @@
       <c r="BE101" s="5"/>
       <c r="BJ101" s="5"/>
     </row>
-    <row r="102" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -17571,7 +17571,7 @@
       <c r="BE102" s="5"/>
       <c r="BJ102" s="5"/>
     </row>
-    <row r="103" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -17588,7 +17588,7 @@
       <c r="BE103" s="5"/>
       <c r="BJ103" s="5"/>
     </row>
-    <row r="104" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -17605,7 +17605,7 @@
       <c r="BE104" s="5"/>
       <c r="BJ104" s="5"/>
     </row>
-    <row r="105" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -17622,7 +17622,7 @@
       <c r="BE105" s="5"/>
       <c r="BJ105" s="5"/>
     </row>
-    <row r="106" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -17639,7 +17639,7 @@
       <c r="BE106" s="5"/>
       <c r="BJ106" s="5"/>
     </row>
-    <row r="107" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -17656,7 +17656,7 @@
       <c r="BE107" s="5"/>
       <c r="BJ107" s="5"/>
     </row>
-    <row r="108" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -17673,7 +17673,7 @@
       <c r="BE108" s="5"/>
       <c r="BJ108" s="5"/>
     </row>
-    <row r="109" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -17690,7 +17690,7 @@
       <c r="BE109" s="5"/>
       <c r="BJ109" s="5"/>
     </row>
-    <row r="110" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -17707,7 +17707,7 @@
       <c r="BE110" s="5"/>
       <c r="BJ110" s="5"/>
     </row>
-    <row r="111" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -17724,7 +17724,7 @@
       <c r="BE111" s="5"/>
       <c r="BJ111" s="5"/>
     </row>
-    <row r="112" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -17741,7 +17741,7 @@
       <c r="BE112" s="5"/>
       <c r="BJ112" s="5"/>
     </row>
-    <row r="113" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -17758,7 +17758,7 @@
       <c r="BE113" s="5"/>
       <c r="BJ113" s="5"/>
     </row>
-    <row r="114" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -17775,7 +17775,7 @@
       <c r="BE114" s="5"/>
       <c r="BJ114" s="5"/>
     </row>
-    <row r="115" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -17792,7 +17792,7 @@
       <c r="BE115" s="5"/>
       <c r="BJ115" s="5"/>
     </row>
-    <row r="116" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -17809,7 +17809,7 @@
       <c r="BE116" s="5"/>
       <c r="BJ116" s="5"/>
     </row>
-    <row r="117" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -17826,7 +17826,7 @@
       <c r="BE117" s="5"/>
       <c r="BJ117" s="5"/>
     </row>
-    <row r="118" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -17843,7 +17843,7 @@
       <c r="BE118" s="5"/>
       <c r="BJ118" s="5"/>
     </row>
-    <row r="119" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -17860,7 +17860,7 @@
       <c r="BE119" s="5"/>
       <c r="BJ119" s="5"/>
     </row>
-    <row r="120" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -17877,7 +17877,7 @@
       <c r="BE120" s="5"/>
       <c r="BJ120" s="5"/>
     </row>
-    <row r="121" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -17894,7 +17894,7 @@
       <c r="BE121" s="5"/>
       <c r="BJ121" s="5"/>
     </row>
-    <row r="122" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -17911,7 +17911,7 @@
       <c r="BE122" s="5"/>
       <c r="BJ122" s="5"/>
     </row>
-    <row r="123" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -17928,7 +17928,7 @@
       <c r="BE123" s="5"/>
       <c r="BJ123" s="5"/>
     </row>
-    <row r="124" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -17945,7 +17945,7 @@
       <c r="BE124" s="5"/>
       <c r="BJ124" s="5"/>
     </row>
-    <row r="125" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -17962,7 +17962,7 @@
       <c r="BE125" s="5"/>
       <c r="BJ125" s="5"/>
     </row>
-    <row r="126" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -17979,7 +17979,7 @@
       <c r="BE126" s="5"/>
       <c r="BJ126" s="5"/>
     </row>
-    <row r="127" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -17996,7 +17996,7 @@
       <c r="BE127" s="5"/>
       <c r="BJ127" s="5"/>
     </row>
-    <row r="128" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -18013,7 +18013,7 @@
       <c r="BE128" s="5"/>
       <c r="BJ128" s="5"/>
     </row>
-    <row r="129" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -18030,7 +18030,7 @@
       <c r="BE129" s="5"/>
       <c r="BJ129" s="5"/>
     </row>
-    <row r="130" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -18047,7 +18047,7 @@
       <c r="BE130" s="5"/>
       <c r="BJ130" s="5"/>
     </row>
-    <row r="131" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -18064,7 +18064,7 @@
       <c r="BE131" s="5"/>
       <c r="BJ131" s="5"/>
     </row>
-    <row r="132" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -18081,7 +18081,7 @@
       <c r="BE132" s="5"/>
       <c r="BJ132" s="5"/>
     </row>
-    <row r="133" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -18098,7 +18098,7 @@
       <c r="BE133" s="5"/>
       <c r="BJ133" s="5"/>
     </row>
-    <row r="134" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -18115,7 +18115,7 @@
       <c r="BE134" s="5"/>
       <c r="BJ134" s="5"/>
     </row>
-    <row r="135" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -18132,7 +18132,7 @@
       <c r="BE135" s="5"/>
       <c r="BJ135" s="5"/>
     </row>
-    <row r="136" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -18149,7 +18149,7 @@
       <c r="BE136" s="5"/>
       <c r="BJ136" s="5"/>
     </row>
-    <row r="137" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -18166,7 +18166,7 @@
       <c r="BE137" s="5"/>
       <c r="BJ137" s="5"/>
     </row>
-    <row r="138" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -18183,7 +18183,7 @@
       <c r="BE138" s="5"/>
       <c r="BJ138" s="5"/>
     </row>
-    <row r="139" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -18200,7 +18200,7 @@
       <c r="BE139" s="5"/>
       <c r="BJ139" s="5"/>
     </row>
-    <row r="140" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
@@ -18217,7 +18217,7 @@
       <c r="BE140" s="5"/>
       <c r="BJ140" s="5"/>
     </row>
-    <row r="141" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -18234,7 +18234,7 @@
       <c r="BE141" s="5"/>
       <c r="BJ141" s="5"/>
     </row>
-    <row r="142" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
@@ -18251,7 +18251,7 @@
       <c r="BE142" s="5"/>
       <c r="BJ142" s="5"/>
     </row>
-    <row r="143" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
@@ -18268,7 +18268,7 @@
       <c r="BE143" s="5"/>
       <c r="BJ143" s="5"/>
     </row>
-    <row r="144" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -18285,7 +18285,7 @@
       <c r="BE144" s="5"/>
       <c r="BJ144" s="5"/>
     </row>
-    <row r="145" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
@@ -18302,7 +18302,7 @@
       <c r="BE145" s="5"/>
       <c r="BJ145" s="5"/>
     </row>
-    <row r="146" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
@@ -18319,7 +18319,7 @@
       <c r="BE146" s="5"/>
       <c r="BJ146" s="5"/>
     </row>
-    <row r="147" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
@@ -18336,7 +18336,7 @@
       <c r="BE147" s="5"/>
       <c r="BJ147" s="5"/>
     </row>
-    <row r="148" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
@@ -18353,7 +18353,7 @@
       <c r="BE148" s="5"/>
       <c r="BJ148" s="5"/>
     </row>
-    <row r="149" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
@@ -18370,7 +18370,7 @@
       <c r="BE149" s="5"/>
       <c r="BJ149" s="5"/>
     </row>
-    <row r="150" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -18387,7 +18387,7 @@
       <c r="BE150" s="5"/>
       <c r="BJ150" s="5"/>
     </row>
-    <row r="151" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -18404,7 +18404,7 @@
       <c r="BE151" s="5"/>
       <c r="BJ151" s="5"/>
     </row>
-    <row r="152" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
@@ -18421,7 +18421,7 @@
       <c r="BE152" s="5"/>
       <c r="BJ152" s="5"/>
     </row>
-    <row r="153" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
@@ -18438,7 +18438,7 @@
       <c r="BE153" s="5"/>
       <c r="BJ153" s="5"/>
     </row>
-    <row r="154" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
@@ -18455,7 +18455,7 @@
       <c r="BE154" s="5"/>
       <c r="BJ154" s="5"/>
     </row>
-    <row r="155" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -18472,7 +18472,7 @@
       <c r="BE155" s="5"/>
       <c r="BJ155" s="5"/>
     </row>
-    <row r="156" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
@@ -18489,7 +18489,7 @@
       <c r="BE156" s="5"/>
       <c r="BJ156" s="5"/>
     </row>
-    <row r="157" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
@@ -18506,7 +18506,7 @@
       <c r="BE157" s="5"/>
       <c r="BJ157" s="5"/>
     </row>
-    <row r="158" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -18523,7 +18523,7 @@
       <c r="BE158" s="5"/>
       <c r="BJ158" s="5"/>
     </row>
-    <row r="159" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
@@ -18540,7 +18540,7 @@
       <c r="BE159" s="5"/>
       <c r="BJ159" s="5"/>
     </row>
-    <row r="160" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
@@ -18557,7 +18557,7 @@
       <c r="BE160" s="5"/>
       <c r="BJ160" s="5"/>
     </row>
-    <row r="161" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
@@ -18574,7 +18574,7 @@
       <c r="BE161" s="5"/>
       <c r="BJ161" s="5"/>
     </row>
-    <row r="162" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
@@ -18591,7 +18591,7 @@
       <c r="BE162" s="5"/>
       <c r="BJ162" s="5"/>
     </row>
-    <row r="163" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -18608,7 +18608,7 @@
       <c r="BE163" s="5"/>
       <c r="BJ163" s="5"/>
     </row>
-    <row r="164" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -18625,7 +18625,7 @@
       <c r="BE164" s="5"/>
       <c r="BJ164" s="5"/>
     </row>
-    <row r="165" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
@@ -18642,7 +18642,7 @@
       <c r="BE165" s="5"/>
       <c r="BJ165" s="5"/>
     </row>
-    <row r="166" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
@@ -18659,7 +18659,7 @@
       <c r="BE166" s="5"/>
       <c r="BJ166" s="5"/>
     </row>
-    <row r="167" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
@@ -18676,7 +18676,7 @@
       <c r="BE167" s="5"/>
       <c r="BJ167" s="5"/>
     </row>
-    <row r="168" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
@@ -18693,7 +18693,7 @@
       <c r="BE168" s="5"/>
       <c r="BJ168" s="5"/>
     </row>
-    <row r="169" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
@@ -18710,7 +18710,7 @@
       <c r="BE169" s="5"/>
       <c r="BJ169" s="5"/>
     </row>
-    <row r="170" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
@@ -18727,7 +18727,7 @@
       <c r="BE170" s="5"/>
       <c r="BJ170" s="5"/>
     </row>
-    <row r="171" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
@@ -18744,7 +18744,7 @@
       <c r="BE171" s="5"/>
       <c r="BJ171" s="5"/>
     </row>
-    <row r="172" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -18761,7 +18761,7 @@
       <c r="BE172" s="5"/>
       <c r="BJ172" s="5"/>
     </row>
-    <row r="173" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
@@ -18778,7 +18778,7 @@
       <c r="BE173" s="5"/>
       <c r="BJ173" s="5"/>
     </row>
-    <row r="174" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
@@ -18795,7 +18795,7 @@
       <c r="BE174" s="5"/>
       <c r="BJ174" s="5"/>
     </row>
-    <row r="175" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
@@ -18812,7 +18812,7 @@
       <c r="BE175" s="5"/>
       <c r="BJ175" s="5"/>
     </row>
-    <row r="176" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
@@ -18829,7 +18829,7 @@
       <c r="BE176" s="5"/>
       <c r="BJ176" s="5"/>
     </row>
-    <row r="177" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
@@ -18846,7 +18846,7 @@
       <c r="BE177" s="5"/>
       <c r="BJ177" s="5"/>
     </row>
-    <row r="178" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
@@ -18863,7 +18863,7 @@
       <c r="BE178" s="5"/>
       <c r="BJ178" s="5"/>
     </row>
-    <row r="179" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
@@ -18880,7 +18880,7 @@
       <c r="BE179" s="5"/>
       <c r="BJ179" s="5"/>
     </row>
-    <row r="180" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
@@ -18897,7 +18897,7 @@
       <c r="BE180" s="5"/>
       <c r="BJ180" s="5"/>
     </row>
-    <row r="181" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
@@ -18914,7 +18914,7 @@
       <c r="BE181" s="5"/>
       <c r="BJ181" s="5"/>
     </row>
-    <row r="182" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
@@ -18931,7 +18931,7 @@
       <c r="BE182" s="5"/>
       <c r="BJ182" s="5"/>
     </row>
-    <row r="183" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
@@ -18948,7 +18948,7 @@
       <c r="BE183" s="5"/>
       <c r="BJ183" s="5"/>
     </row>
-    <row r="184" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -18965,7 +18965,7 @@
       <c r="BE184" s="5"/>
       <c r="BJ184" s="5"/>
     </row>
-    <row r="185" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -18982,7 +18982,7 @@
       <c r="BE185" s="5"/>
       <c r="BJ185" s="5"/>
     </row>
-    <row r="186" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -18999,7 +18999,7 @@
       <c r="BE186" s="5"/>
       <c r="BJ186" s="5"/>
     </row>
-    <row r="187" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
@@ -19016,7 +19016,7 @@
       <c r="BE187" s="5"/>
       <c r="BJ187" s="5"/>
     </row>
-    <row r="188" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
@@ -19033,7 +19033,7 @@
       <c r="BE188" s="5"/>
       <c r="BJ188" s="5"/>
     </row>
-    <row r="189" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
@@ -19050,7 +19050,7 @@
       <c r="BE189" s="5"/>
       <c r="BJ189" s="5"/>
     </row>
-    <row r="190" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
@@ -19067,7 +19067,7 @@
       <c r="BE190" s="5"/>
       <c r="BJ190" s="5"/>
     </row>
-    <row r="191" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
@@ -19084,7 +19084,7 @@
       <c r="BE191" s="5"/>
       <c r="BJ191" s="5"/>
     </row>
-    <row r="192" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
@@ -19097,7 +19097,7 @@
       <c r="BE192" s="5"/>
       <c r="BJ192" s="5"/>
     </row>
-    <row r="193" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
@@ -19110,7 +19110,7 @@
       <c r="BE193" s="5"/>
       <c r="BJ193" s="5"/>
     </row>
-    <row r="194" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:62" x14ac:dyDescent="0.45">
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="Z194" s="5"/>
@@ -19119,60 +19119,60 @@
       <c r="BE194" s="5"/>
       <c r="BJ194" s="5"/>
     </row>
-    <row r="195" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z195" s="5"/>
       <c r="BE195" s="5"/>
       <c r="BJ195" s="5"/>
     </row>
-    <row r="196" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z196" s="5"/>
       <c r="BE196" s="5"/>
       <c r="BJ196" s="5"/>
     </row>
-    <row r="197" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z197" s="5"/>
       <c r="BE197" s="5"/>
       <c r="BJ197" s="5"/>
     </row>
-    <row r="198" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z198" s="5"/>
       <c r="BE198" s="5"/>
       <c r="BJ198" s="5"/>
     </row>
-    <row r="199" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z199" s="5"/>
       <c r="BE199" s="5"/>
       <c r="BJ199" s="5"/>
     </row>
-    <row r="200" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z200" s="5"/>
       <c r="BE200" s="5"/>
       <c r="BJ200" s="5"/>
     </row>
-    <row r="201" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z201" s="5"/>
       <c r="BE201" s="5"/>
       <c r="BJ201" s="5"/>
     </row>
-    <row r="202" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z202" s="5"/>
       <c r="BE202" s="5"/>
       <c r="BJ202" s="5"/>
     </row>
-    <row r="203" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z203" s="5"/>
       <c r="BE203" s="5"/>
       <c r="BJ203" s="5"/>
     </row>
-    <row r="204" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:62" x14ac:dyDescent="0.45">
       <c r="Z204" s="5"/>
       <c r="BE204" s="5"/>
       <c r="BJ204" s="5"/>
     </row>
-    <row r="205" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:62" x14ac:dyDescent="0.45">
       <c r="BE205" s="5"/>
     </row>
-    <row r="206" spans="4:62" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:62" x14ac:dyDescent="0.45">
       <c r="BE206" s="5"/>
     </row>
   </sheetData>
@@ -19190,95 +19190,95 @@
   </sheetPr>
   <dimension ref="B2:R314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="8.76171875" customWidth="1"/>
+    <col min="2" max="2" width="15.37890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6171875" customWidth="1"/>
+    <col min="5" max="5" width="19.76171875" customWidth="1"/>
+    <col min="8" max="8" width="15.37890625" customWidth="1"/>
+    <col min="11" max="11" width="15.37890625" customWidth="1"/>
+    <col min="14" max="14" width="15.6171875" customWidth="1"/>
+    <col min="17" max="17" width="12.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" ht="14.4" x14ac:dyDescent="0.45">
       <c r="B2" s="62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
       <c r="K2" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
       <c r="N2" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" s="62"/>
       <c r="Q2" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B3" s="63" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="C3" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>165</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>165</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>165</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>165</v>
       </c>
       <c r="M3" s="64"/>
       <c r="N3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="O3" s="63" t="s">
-        <v>165</v>
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>354</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>-1833.22496620171</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>218.830344542635</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>-2156.0939237295802</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>81.401038123148695</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>-2156.0939237295802</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>81.401038123148197</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>-2251.8675211699001</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>51.327697309877102</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>-2267.73863664584</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>33.834696480160098</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>-2267.73863664584</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>33.834696480159998</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>-2270.0987225797699</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>32.9170922886154</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>-2271.27660555689</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>32.212700719507602</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>-2271.6024368593098</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>32.1209901108816</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>-2272.1784448120402</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>31.799357858895501</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>-2274.79787196907</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>30.599576886338799</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>-2278.3159095503702</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>30.599038202504701</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>-2278.3159095503702</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <v>30.597656730279699</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>-2281.8441425789601</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <v>28.987528304487299</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>-2283.6776402048299</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <v>28.987528304487199</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>-2283.9881461443902</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <v>27.372023334429802</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>-2285.3961515200499</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <v>26.390658513940402</v>
       </c>
@@ -20052,7 +20052,7 @@
         <v>-2287.3267416128401</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <v>25.746314426774902</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>-2288.9858837125098</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <v>24.104035433060599</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>-2288.9858837125098</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <v>24.104035433060599</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>-2292.6278761766398</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <v>23.287604481366699</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>-2296.1632250319999</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <v>22.4385616246166</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>-2296.2634855115698</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <v>20.8225430275753</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>-2296.33749824814</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <v>20.742899721183498</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>-2297.7739358188501</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <v>20.528454370477402</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>-2300.13122290294</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <v>19.0095652542925</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>-2304.02693736931</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <v>17.230442512856801</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>-2304.02693736931</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <v>17.230442512856801</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>-2308.0443060894099</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>16.722879773559001</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>-2309.2860465573999</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <v>15.3966212302852</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>-2312.2052025359098</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <v>14.848062876848999</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>-2316.5342311684399</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <v>14.8299763921032</v>
       </c>
@@ -20697,7 +20697,7 @@
         <v>-2316.5342311684399</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <v>13.4982026508732</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>-2321.05936745692</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <v>11.524065501014499</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>-2324.12646155735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <v>11.5240655010143</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>-2325.8127531863502</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <v>9.46157945642973</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>-2330.0145061909502</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <v>8.0642738055961001</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>-2330.8316973654601</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <v>7.2962495968519798</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>-2330.8316973654601</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <v>5.0112695603283699</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>-2331.8326971629999</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <v>5.0112695603281896</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>-2336.15995177491</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <v>2.5869528697139201</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>-2341.8493572679399</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <v>2.03726813197135E-13</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>-2341.8493572679399</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <v>-2.5876526388720702</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>-2336.2032731364102</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <v>-5.0138960965715196</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>-2330.9127933684499</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <v>-5.0138960965717798</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>-2330.9127933684499</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <v>-7.3018187740452403</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>-2325.9269549661399</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <v>-8.0710776926650993</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>-2325.0668539489898</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <v>-9.4709468192672297</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>-2324.25124698749</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <v>-11.5379648748041</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>-2323.9281861355498</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <v>-11.537964874804199</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>-2321.2027070215699</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <v>-13.517275932749</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>-2316.7033047105301</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <v>-14.853002206998999</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>-2316.7033047105301</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <v>-15.4214417406449</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>-2313.3198295064199</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <v>-17.261533614695001</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>-2312.3970635416699</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <v>-17.2615336146952</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>-2309.4922621791602</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <v>-19.047415486117298</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>-2309.2596013760599</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <v>-20.787975367769199</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-2308.2563807382198</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <v>-20.867965857647899</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>-2304.2569567750702</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <v>-22.491317424556801</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>-2304.2569567750702</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <v>-24.164923963703799</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>-2300.37716818646</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <v>-24.164923963704101</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>-2296.5975554460701</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <v>-25.705736554141001</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>-2296.42389736314</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <v>-25.815794596315001</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>-2294.4958979538401</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <v>-25.8932404903315</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>-2292.9003987195001</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <v>-26.463664844176598</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>-2291.08487972372</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <v>-27.450568334756198</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>-2289.2693607279398</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <v>-29.075633328289602</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>-2289.2693607279398</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <v>-29.075633328289701</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>-2285.6891805967598</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <v>-30.697228198502401</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>-2284.2845841620501</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <v>-31.9054157683528</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>-2282.14540590157</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <v>-32.321538447121902</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>-2278.6241525125001</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <v>-33.954791127721997</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>-2278.6241525125001</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <v>-33.954791127722203</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>-2275.1118835101302</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <v>-81.401038123151395</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>-2272.4959787689199</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <v>-81.401038123151395</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>-2271.59519955919</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <v>-111.98401519560799</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>-2268.6723855506002</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B81" s="2">
         <v>-363.019285332023</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>-2268.0606337813601</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B82" s="2">
         <v>-363.019285332023</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>-2268.0606337813601</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B83" s="2">
         <v>-384.76522298325</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>-2251.6213048865602</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B84" s="2">
         <v>-391.02957494327501</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>-2156.0939237295702</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B85" s="2">
         <v>-391.02957494327501</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>-2156.0939237295702</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B86" s="2">
         <v>-559.24364401794298</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>-1671.9286601696101</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B87" s="2">
         <v>-635.58998464248805</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>-1671.9286601696001</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B88" s="2">
         <v>-635.58998464248896</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>-1639.31432935458</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B89" s="2">
         <v>-854.88534833737401</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>-1628.2058255622001</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B90" s="2">
         <v>-878.27814724515702</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>-1628.2058255622001</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
         <v>-1036.1795398726899</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>-1337.3653427727199</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B92" s="2">
         <v>-1036.1795398726899</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>-1217.9098662603101</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B93" s="2">
         <v>-1110.23658701975</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>-1217.9098662603101</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B94" s="2">
         <v>-1194.5524592229499</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>-805.04835929744399</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B95" s="2">
         <v>-1300.5603919763601</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>-524.45834397261297</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <v>-1327.28508090579</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>-423.80224323703999</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B97" s="2">
         <v>-1442.79000067173</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>-423.80224323703902</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B98" s="2">
         <v>-1442.79000067173</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>-250.11997296921299</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B99" s="2">
         <v>-1521.44836249234</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>-45.089980482588203</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B100" s="2">
         <v>-1540.49805074198</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>198.233914942756</v>
       </c>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B101" s="2">
         <v>-1625.6750777801101</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>312.09113393423797</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B102" s="2">
         <v>-1694.6575011851801</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>659.30273093083201</v>
       </c>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B103" s="2">
         <v>-1694.6575011851801</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>659.30273093083304</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B104" s="2">
         <v>-1754.56128793935</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>928.94572564624195</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B105" s="2">
         <v>-1760.94093762072</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>1000.55322046564</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B106" s="2">
         <v>-1798.6033202860201</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>1329.9343435225601</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B107" s="2">
         <v>-1830.13391917999</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>1660.86210758517</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B108" s="2">
         <v>-1830.13391917999</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>1660.86210758517</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B109" s="2">
         <v>-1844.8212282713801</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>1981.3711379814299</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B110" s="2">
         <v>-1842.0358178731601</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>2027.76258508307</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B111" s="2">
         <v>-1842.0358178731601</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>2306.9468193485</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B112" s="2">
         <v>-1839.3319833706</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>2630.5678181345302</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B113" s="2">
         <v>-1834.3029764159901</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>2630.5678181345302</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B114" s="2">
         <v>-1829.0717745791101</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>2959.5293612932901</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B115" s="2">
         <v>-1824.1739609448</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>2959.5293612932901</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B116" s="2">
         <v>-1823.1411992698199</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>3127.9169223210702</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B117" s="2">
         <v>-1816.0575159734001</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>3301.6799820732199</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B118" s="2">
         <v>-1807.41451027263</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>3633.7571109829601</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B119" s="2">
         <v>-1807.41451027263</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>3957.5463806571502</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B120" s="2">
         <v>-1796.8749848075799</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>4224.2030620142796</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B121" s="2">
         <v>-1796.8749848075799</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>4275.6812872641503</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B122" s="2">
         <v>-1794.67609700356</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>4589.8703763883896</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B123" s="2">
         <v>-1784.0433481673599</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>4901.6638815932201</v>
       </c>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B124" s="2">
         <v>-1768.4923739926301</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>4901.6638815932201</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B125" s="2">
         <v>-1749.82237999222</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>5212.2825025537804</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B126" s="2">
         <v>-1749.82237999222</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>5212.2825025537804</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B127" s="2">
         <v>-1738.40483122353</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>5270.0422058665499</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B128" s="2">
         <v>-1727.6605596135901</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>5523.19368332865</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B129" s="2">
         <v>-1701.5533997453199</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>5835.9435783479503</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B130" s="2">
         <v>-1670.84288291967</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>6151.7238276677899</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B131" s="2">
         <v>-1639.4074415633099</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>6151.7238276677899</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B132" s="2">
         <v>-1639.4074415633099</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>6322.3011787743399</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B133" s="2">
         <v>-1634.9570405255499</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>6471.6329892065096</v>
       </c>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B134" s="2">
         <v>-1593.47931078845</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>6796.7841153930003</v>
       </c>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B135" s="2">
         <v>-1545.4034766945699</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>7128.7193908128602</v>
       </c>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B136" s="2">
         <v>-1490.2581471154199</v>
       </c>
@@ -24997,7 +24997,7 @@
         <v>7428.6085677260498</v>
       </c>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B137" s="2">
         <v>-1490.2581471154199</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>7428.6085677260498</v>
       </c>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B138" s="2">
         <v>-1476.32921034333</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>7468.5718677425402</v>
       </c>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B139" s="2">
         <v>-1427.23410002535</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>7817.1106058452197</v>
       </c>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B140" s="2">
         <v>-1384.4782339256401</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>8175.8880179216003</v>
       </c>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B141" s="2">
         <v>-1356.2288223954699</v>
       </c>
@@ -25212,7 +25212,7 @@
         <v>8545.4695802879105</v>
       </c>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B142" s="2">
         <v>-1301.3773719373701</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>8545.4695802879105</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B143" s="2">
         <v>-1276.91658997632</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>8633.0442789306398</v>
       </c>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B144" s="2">
         <v>-1276.91658997632</v>
       </c>
@@ -25341,7 +25341,7 @@
         <v>8926.5739927291797</v>
       </c>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B145" s="2">
         <v>-1227.3921545651799</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>9174.2084136041994</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B146" s="2">
         <v>-1190.80829732389</v>
       </c>
@@ -25427,7 +25427,7 @@
         <v>9318.5692867600501</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B147" s="2">
         <v>-1144.9471130970101</v>
       </c>
@@ -25470,7 +25470,7 @@
         <v>9566.1036774981803</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B148" s="2">
         <v>-1104.8185768984899</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>9720.3366440350201</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B149" s="2">
         <v>-1083.64139297217</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>9956.8901686180907</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B150" s="2">
         <v>-1021.62249718795</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>9956.8901686180907</v>
       </c>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B151" s="2">
         <v>-946.503653809664</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>10127.114172007099</v>
       </c>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B152" s="2">
         <v>-946.503653809664</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>10421.600848669101</v>
       </c>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B153" s="2">
         <v>-942.72166786551395</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>10524.328759132501</v>
       </c>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B154" s="2">
         <v>-940.95252384683999</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>10579.0280114899</v>
       </c>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B155" s="2">
         <v>-906.37699130296505</v>
       </c>
@@ -25814,7 +25814,7 @@
         <v>10907.223525633701</v>
       </c>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B156" s="2">
         <v>-862.58131674739002</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>11251.6093159181</v>
       </c>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B157" s="2">
         <v>-786.32018387831397</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>11251.6093159181</v>
       </c>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B158" s="2">
         <v>-712.01895813338899</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>11258.6347163147</v>
       </c>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B159" s="2">
         <v>-712.01895813338797</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>11277.0043991603</v>
       </c>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B160" s="2">
         <v>-691.61756458741399</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>11612.314753901001</v>
       </c>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B161" s="2">
         <v>-639.56742966499996</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>11634.6687775504</v>
       </c>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B162" s="2">
         <v>-568.89857748892098</v>
       </c>
@@ -26115,7 +26115,7 @@
         <v>11981.0108593574</v>
       </c>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B163" s="2">
         <v>-499.99398605617603</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>12316.619514853601</v>
       </c>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B164" s="2">
         <v>-499.99398605617603</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>12316.619514853601</v>
       </c>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B165" s="2">
         <v>-457.64448931610099</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>12408.418236717</v>
       </c>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B166" s="2">
         <v>-442.49148397486698</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>12641.8679223462</v>
       </c>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B167" s="2">
         <v>-432.89202290846401</v>
       </c>
@@ -26330,7 +26330,7 @@
         <v>12956.8936105957</v>
       </c>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B168" s="2">
         <v>-409.35032101890903</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>13261.5667980382</v>
       </c>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B169" s="2">
         <v>-367.69961767585198</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>13261.5667980382</v>
       </c>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B170" s="2">
         <v>-304.60885875823499</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>13447.3984999575</v>
       </c>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B171" s="2">
         <v>-304.60885875823499</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>13506.400139511499</v>
       </c>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B172" s="2">
         <v>-245.301268148248</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>13555.443912417601</v>
       </c>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B173" s="2">
         <v>-243.92017089994499</v>
       </c>
@@ -26588,7 +26588,7 @@
         <v>13837.7017772831</v>
       </c>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B174" s="2">
         <v>-186.07464700218199</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>13892.1361668072</v>
       </c>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B175" s="2">
         <v>-131.69932908586901</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>14107.045964408801</v>
       </c>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B176" s="2">
         <v>-104.854917976476</v>
       </c>
@@ -26717,7 +26717,7 @@
         <v>14107.045964408801</v>
       </c>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B177" s="2">
         <v>-81.671108382000895</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>14355.850825661701</v>
       </c>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B178" s="2">
         <v>-81.671108382000796</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>14361.583925519</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B179" s="2">
         <v>-78.130180150053505</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>14598.649249256399</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B180" s="2">
         <v>-66.512828519410107</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>14676.838052249101</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B181" s="2">
         <v>-37.2078468049477</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>14814.556966611201</v>
       </c>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B182" s="2">
         <v>-8.2880037906756403</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>15004.259988134299</v>
       </c>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B183" s="2">
         <v>-8.3819031715392996E-14</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>15004.259988134299</v>
       </c>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B184" s="2">
         <v>20.5128102599008</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>15033.0737433674</v>
       </c>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B185" s="2">
         <v>37.2078468049476</v>
       </c>
@@ -27104,7 +27104,7 @@
         <v>15059.2791849966</v>
       </c>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B186" s="2">
         <v>66.512828519410903</v>
       </c>
@@ -27147,7 +27147,7 @@
         <v>15160.861397565999</v>
       </c>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B187" s="2">
         <v>73.634490146444605</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>15249.811798278701</v>
       </c>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B188" s="2">
         <v>81.671108382001407</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>15274.912870260599</v>
       </c>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B189" s="2">
         <v>81.671108382001606</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>15216.7159487839</v>
       </c>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B190" s="2">
         <v>94.966476403719298</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>15160.861397565999</v>
       </c>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B191" s="2">
         <v>131.69932908586901</v>
       </c>
@@ -27362,7 +27362,7 @@
         <v>15059.2791849966</v>
       </c>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B192" s="2">
         <v>186.074647002181</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>15019.2735250323</v>
       </c>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B193" s="2">
         <v>243.92017089994499</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>15004.259988134299</v>
       </c>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B194" s="2">
         <v>245.30126814824899</v>
       </c>
@@ -27491,7 +27491,7 @@
         <v>15004.259988134299</v>
       </c>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B195" s="2">
         <v>246.55706076659899</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>14978.118417453299</v>
       </c>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B196" s="2">
         <v>304.60885875823499</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>14814.556966611201</v>
       </c>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B197" s="2">
         <v>304.60885875823601</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>14598.649249256399</v>
       </c>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B198" s="2">
         <v>367.69961767585198</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>14361.5839255191</v>
       </c>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B199" s="2">
         <v>432.89202290846401</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>14357.4808715611</v>
       </c>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B200" s="2">
         <v>453.18492281782397</v>
       </c>
@@ -27749,7 +27749,7 @@
         <v>14355.850825661701</v>
       </c>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B201" s="2">
         <v>457.64448931610201</v>
       </c>
@@ -27792,7 +27792,7 @@
         <v>14107.045964408801</v>
       </c>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B202" s="2">
         <v>499.99398605617603</v>
       </c>
@@ -27835,7 +27835,7 @@
         <v>14107.045964408801</v>
       </c>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B203" s="2">
         <v>499.99398605617699</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>13837.7017772831</v>
       </c>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B204" s="2">
         <v>568.89857748892098</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>13555.443912417501</v>
       </c>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B205" s="2">
         <v>639.56742966499996</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>13469.513664410901</v>
       </c>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B206" s="2">
         <v>691.61756458741399</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>13447.3984999575</v>
       </c>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B207" s="2">
         <v>712.01895813338797</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>13261.5667980382</v>
       </c>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B208" s="2">
         <v>712.01895813338899</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>13261.5667980382</v>
       </c>
     </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B209" s="2">
         <v>745.94004859430697</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>12956.8936105957</v>
       </c>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B210" s="2">
         <v>786.32018387831499</v>
       </c>
@@ -28179,7 +28179,7 @@
         <v>12641.8679223462</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B211" s="2">
         <v>862.58131674739195</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>12408.418236717</v>
       </c>
     </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B212" s="2">
         <v>876.28839535640998</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>12316.619514853601</v>
       </c>
     </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B213" s="2">
         <v>940.95252384683897</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>12316.619514853601</v>
       </c>
     </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B214" s="2">
         <v>946.50365380966298</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>12178.445997827101</v>
       </c>
     </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B215" s="2">
         <v>946.503653809664</v>
       </c>
@@ -28394,7 +28394,7 @@
         <v>11981.0108593574</v>
       </c>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B216" s="2">
         <v>1021.62249718795</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>11634.6687775504</v>
       </c>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B217" s="2">
         <v>1104.8185768984899</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>11511.2348467461</v>
       </c>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B218" s="2">
         <v>1190.80829732389</v>
       </c>
@@ -28523,7 +28523,7 @@
         <v>11277.0043991603</v>
       </c>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B219" s="2">
         <v>1227.3921545651799</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>11251.6093159181</v>
       </c>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B220" s="2">
         <v>1276.91658997632</v>
       </c>
@@ -28609,7 +28609,7 @@
         <v>11251.6093159181</v>
       </c>
     </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B221" s="2">
         <v>1276.91658997632</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>10923.9096815253</v>
       </c>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B222" s="2">
         <v>1324.9436639032499</v>
       </c>
@@ -28695,7 +28695,7 @@
         <v>10907.223525633701</v>
       </c>
     </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B223" s="2">
         <v>1356.2288223954699</v>
       </c>
@@ -28738,7 +28738,7 @@
         <v>10897.779108204601</v>
       </c>
     </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B224" s="2">
         <v>1394.00807857209</v>
       </c>
@@ -28781,7 +28781,7 @@
         <v>10524.328759132601</v>
       </c>
     </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B225" s="2">
         <v>1427.2591354103499</v>
       </c>
@@ -28824,7 +28824,7 @@
         <v>10127.114172007099</v>
       </c>
     </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B226" s="2">
         <v>1476.2584963895499</v>
       </c>
@@ -28867,7 +28867,7 @@
         <v>9956.8901686180907</v>
       </c>
     </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B227" s="2">
         <v>1490.2164978304299</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>9956.8901686180907</v>
       </c>
     </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B228" s="2">
         <v>1490.2164978304299</v>
       </c>
@@ -28953,7 +28953,7 @@
         <v>9720.3366440350201</v>
       </c>
     </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B229" s="2">
         <v>1545.43629476401</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>9535.4900464343009</v>
       </c>
     </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B230" s="2">
         <v>1593.41865560002</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>9318.5692867600501</v>
       </c>
     </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B231" s="2">
         <v>1635.05534863408</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>9036.4204171905694</v>
       </c>
     </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B232" s="2">
         <v>1639.5019914291299</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>8926.5146070360406</v>
       </c>
     </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B233" s="2">
         <v>1639.5019914291299</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>8633.1265851200096</v>
       </c>
     </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B234" s="2">
         <v>1670.82130217341</v>
       </c>
@@ -29211,7 +29211,7 @@
         <v>8545.4919140190395</v>
       </c>
     </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B235" s="2">
         <v>1701.49516822242</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>8545.4919140190395</v>
       </c>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B236" s="2">
         <v>1727.71148622381</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>8175.87432250444</v>
       </c>
     </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B237" s="2">
         <v>1738.4888191912401</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>7817.1728265247602</v>
       </c>
     </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B238" s="2">
         <v>1749.8638004473901</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>7468.4058590764998</v>
       </c>
     </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B239" s="2">
         <v>1749.8638004473901</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>7428.4702167415799</v>
       </c>
     </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B240" s="2">
         <v>1768.4489791460601</v>
       </c>
@@ -29469,7 +29469,7 @@
         <v>7428.4702167415799</v>
       </c>
     </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B241" s="2">
         <v>1784.00258639854</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>7128.79825713028</v>
       </c>
     </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B242" s="2">
         <v>1794.6822819337399</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>6796.8727580735804</v>
       </c>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B243" s="2">
         <v>1796.89242974738</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>6471.4720871422796</v>
       </c>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B244" s="2">
         <v>1796.89242974738</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v>6322.1050634650401</v>
       </c>
     </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B245" s="2">
         <v>1807.45275077271</v>
       </c>
@@ -29684,7 +29684,7 @@
         <v>6151.6554864444797</v>
       </c>
     </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B246" s="2">
         <v>1807.45275077271</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>6151.6554864444797</v>
       </c>
     </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B247" s="2">
         <v>1816.0663023373299</v>
       </c>
@@ -29770,7 +29770,7 @@
         <v>5836.1298256483797</v>
       </c>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B248" s="2">
         <v>1823.12259398271</v>
       </c>
@@ -29813,7 +29813,7 @@
         <v>5523.2939566402201</v>
       </c>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B249" s="2">
         <v>1824.15509951335</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>5269.9323079177002</v>
       </c>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B250" s="2">
         <v>1825.78987225318</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>5212.1221957157604</v>
       </c>
     </row>
-    <row r="251" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B251" s="2">
         <v>1829.0515100611501</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>5212.1221957157604</v>
       </c>
     </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B252" s="2">
         <v>1833.00155755693</v>
       </c>
@@ -29985,7 +29985,7 @@
         <v>4901.4869897985</v>
       </c>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B253" s="2">
         <v>1834.28082030513</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>4901.4869897985</v>
       </c>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B254" s="2">
         <v>1839.3396945442701</v>
       </c>
@@ -30071,7 +30071,7 @@
         <v>4589.9618010077102</v>
       </c>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B255" s="2">
         <v>1842.06411880307</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>4275.9694118033603</v>
       </c>
     </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B256" s="2">
         <v>1842.06411880307</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>4224.4481186271696</v>
       </c>
     </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B257" s="2">
         <v>1844.8512577910301</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>4150.73255772217</v>
       </c>
     </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B258" s="2">
         <v>1831.53244670187</v>
       </c>
@@ -30243,7 +30243,7 @@
         <v>3957.5555259216599</v>
       </c>
     </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B259" s="2">
         <v>1831.53244670187</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>3660.8928557701101</v>
       </c>
     </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B260" s="2">
         <v>1798.6253746805301</v>
       </c>
@@ -30329,7 +30329,7 @@
         <v>3633.44821512609</v>
       </c>
     </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B261" s="2">
         <v>1759.9369859199701</v>
       </c>
@@ -30372,7 +30372,7 @@
         <v>3301.55299336096</v>
       </c>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B262" s="2">
         <v>1752.6315067903199</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>3127.95859385526</v>
       </c>
     </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B263" s="2">
         <v>1696.9163729525801</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>2960.18300382794</v>
       </c>
     </row>
-    <row r="264" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B264" s="2">
         <v>1696.9163729525801</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>2960.18300382794</v>
       </c>
     </row>
-    <row r="265" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B265" s="2">
         <v>1624.2749865891201</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>2628.4024249953</v>
       </c>
     </row>
-    <row r="266" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B266" s="2">
         <v>1541.3862406016699</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>2628.4024249953</v>
       </c>
     </row>
-    <row r="267" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B267" s="2">
         <v>1521.5794361195301</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>2305.88641687682</v>
       </c>
     </row>
-    <row r="268" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B268" s="2">
         <v>1489.8611747344501</v>
       </c>
@@ -30673,7 +30673,7 @@
         <v>2029.6737059729101</v>
       </c>
     </row>
-    <row r="269" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B269" s="2">
         <v>1442.06628058401</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>1984.84442246362</v>
       </c>
     </row>
-    <row r="270" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B270" s="2">
         <v>1442.06628058401</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>1657.0861919655899</v>
       </c>
     </row>
-    <row r="271" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B271" s="2">
         <v>1328.09501805796</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>1657.0861919655899</v>
       </c>
     </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B272" s="2">
         <v>1260.59571415301</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>1333.45094120364</v>
       </c>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B273" s="2">
         <v>1193.4523867462001</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>997.837994111645</v>
       </c>
     </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B274" s="2">
         <v>1109.82554386061</v>
       </c>
@@ -30931,7 +30931,7 @@
         <v>929.16941415490101</v>
       </c>
     </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B275" s="2">
         <v>1038.91297215243</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>770.27142702669096</v>
       </c>
     </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B276" s="2">
         <v>1038.91297215243</v>
       </c>
@@ -31017,7 +31017,7 @@
         <v>660.74641391360797</v>
       </c>
     </row>
-    <row r="277" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B277" s="2">
         <v>853.07619623499897</v>
       </c>
@@ -31060,7 +31060,7 @@
         <v>660.74641391360797</v>
       </c>
     </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B278" s="2">
         <v>628.59048549484999</v>
       </c>
@@ -31103,7 +31103,7 @@
         <v>312.43005782972699</v>
       </c>
     </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B279" s="2">
         <v>628.59048549484999</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>-48.009023226217401</v>
       </c>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B280" s="2">
         <v>559.02168601744995</v>
       </c>
@@ -31189,7 +31189,7 @@
         <v>-76.420918634465707</v>
       </c>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B281" s="2">
         <v>383.12688216939802</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>-254.32776812082699</v>
       </c>
     </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B282" s="2">
         <v>383.12688216939802</v>
       </c>
@@ -31275,7 +31275,7 @@
         <v>-415.49851223048</v>
       </c>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B283" s="2">
         <v>372.90969509015002</v>
       </c>
@@ -31318,7 +31318,7 @@
         <v>-415.49851223048103</v>
       </c>
     </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B284" s="2">
         <v>354.13321183814401</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>-796.55776550758299</v>
       </c>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B285" s="2">
         <v>354.13321183814401</v>
       </c>
@@ -31404,7 +31404,7 @@
         <v>-811.13764054009403</v>
       </c>
     </row>
-    <row r="286" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B286" s="2">
         <v>354.13321183814401</v>
       </c>
@@ -31443,7 +31443,7 @@
         <v>-868.93984662841797</v>
       </c>
     </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -31478,7 +31478,7 @@
         <v>-1227.9291377488</v>
       </c>
     </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -31513,7 +31513,7 @@
         <v>-1227.9291377488</v>
       </c>
     </row>
-    <row r="289" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -31548,7 +31548,7 @@
         <v>-1333.84971803076</v>
       </c>
     </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -31583,7 +31583,7 @@
         <v>-1635.6122687734401</v>
       </c>
     </row>
-    <row r="291" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -31618,7 +31618,7 @@
         <v>-1635.6122687734401</v>
       </c>
     </row>
-    <row r="292" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -31653,7 +31653,7 @@
         <v>-1667.33406692628</v>
       </c>
     </row>
-    <row r="293" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -31688,7 +31688,7 @@
         <v>-1686.8135583166199</v>
       </c>
     </row>
-    <row r="294" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -31723,7 +31723,7 @@
         <v>-1686.81355831663</v>
       </c>
     </row>
-    <row r="295" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -31758,7 +31758,7 @@
         <v>-1833.22496620171</v>
       </c>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -31783,7 +31783,7 @@
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -31808,7 +31808,7 @@
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -31833,7 +31833,7 @@
       <c r="Q298" s="2"/>
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -31858,7 +31858,7 @@
       <c r="Q299" s="2"/>
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -31883,7 +31883,7 @@
       <c r="Q300" s="2"/>
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -31908,7 +31908,7 @@
       <c r="Q301" s="2"/>
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -31933,7 +31933,7 @@
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -31954,7 +31954,7 @@
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -31975,7 +31975,7 @@
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -31996,7 +31996,7 @@
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -32017,7 +32017,7 @@
       <c r="Q306" s="2"/>
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -32038,7 +32038,7 @@
       <c r="Q307" s="2"/>
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -32059,7 +32059,7 @@
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -32080,7 +32080,7 @@
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -32101,7 +32101,7 @@
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -32122,7 +32122,7 @@
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -32143,7 +32143,7 @@
       <c r="Q312" s="2"/>
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -32164,7 +32164,7 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
     </row>
-    <row r="314" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -32191,21 +32191,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[{"colorTheme":"{{DataSources.ColorThemes[\"Arup\"].ColorTheme}}","disableUpdates":false,"type":"colorTheme"}],"templateName":"Arup Blank","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/Piglet/to copy/Test_piglet_input.xlsx
+++ b/Piglet/to copy/Test_piglet_input.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Piglet\to copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF8F73-8C31-48AC-9414-96FB7EE33005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5D049C-5308-46AD-8BDA-3D58495FE1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Istruzioni" sheetId="12" r:id="rId1"/>
-    <sheet name="Dati analisi" sheetId="9" r:id="rId2"/>
-    <sheet name="Dati terreno" sheetId="4" r:id="rId3"/>
-    <sheet name="Dati pali" sheetId="5" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="12" r:id="rId1"/>
+    <sheet name="Analysis data" sheetId="9" r:id="rId2"/>
+    <sheet name="Ground data" sheetId="4" r:id="rId3"/>
+    <sheet name="Pile data" sheetId="5" r:id="rId4"/>
     <sheet name="Loads" sheetId="10" r:id="rId5"/>
-    <sheet name="Armature MN" sheetId="11" r:id="rId6"/>
+    <sheet name="Reinforcement" sheetId="11" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -1839,7 +1839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="180">
   <si>
     <t>Axial: Surface shear modulus, G(0)</t>
   </si>
@@ -2350,13 +2350,7 @@
     <t>Pile No.</t>
   </si>
   <si>
-    <t>NOTA: possibilità di aggiungere/diminuire il numero di pali</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Load case number</t>
-  </si>
-  <si>
-    <t>Non dovrebbe servire come input</t>
   </si>
   <si>
     <t>Title</t>
@@ -2371,16 +2365,10 @@
     <t>A1</t>
   </si>
   <si>
-    <t>NOTA: possibilità di aggiungere/diminuire il numero di load cases</t>
-  </si>
-  <si>
     <t>1a) Dati slab</t>
   </si>
   <si>
     <t>Axial capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Proprietà geometriche e meccaniche </t>
   </si>
   <si>
     <t>Opt. 1</t>
@@ -2586,6 +2574,15 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>NOTE: possibility to add/decrease the number of piles</t>
+  </si>
+  <si>
+    <t>1) Geometric and mechanical properties</t>
+  </si>
+  <si>
+    <t>NOTA: possibilità di aggiungere/diminuire il numero di load cases fino a 12</t>
+  </si>
 </sst>
 </file>
 
@@ -2594,7 +2591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2799,11 +2796,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -2821,6 +2813,24 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2946,7 +2956,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3097,7 +3107,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3131,23 +3141,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4581,8 +4594,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4590,82 +4603,85 @@
     <col min="1" max="1" width="125.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A3" s="51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
+    <row r="1" spans="1:4" ht="17.7" x14ac:dyDescent="0.6">
+      <c r="A1" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A3" s="70" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="72" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="68" t="s">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A10" s="69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="66" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A7" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A8" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A9" s="74"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A10" s="75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A11" s="72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A12" s="72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A13" s="72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A14" s="72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+      <c r="A15" s="72" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="66" t="s">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.5">
+      <c r="A16" s="72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="66" t="s">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A17" s="72" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A16" s="66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="66" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4691,7 +4707,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>98</v>
@@ -4702,7 +4718,7 @@
     </row>
     <row r="4" spans="2:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="36">
         <v>3</v>
@@ -4748,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="54">
         <v>3</v>
@@ -4766,12 +4782,12 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="70"/>
+        <v>125</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="67"/>
       <c r="F2" s="33"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -4887,10 +4903,10 @@
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="D11" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="70"/>
+      <c r="D11" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="67"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -4976,10 +4992,10 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="4:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="D20" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="70"/>
+      <c r="D20" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="67"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -5065,10 +5081,10 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="4:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="D29" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="70"/>
+      <c r="D29" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="67"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5122,10 +5138,10 @@
       </c>
     </row>
     <row r="38" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D38" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="70"/>
+      <c r="D38" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="67"/>
     </row>
     <row r="39" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D39" s="15" t="s">
@@ -5176,10 +5192,10 @@
       </c>
     </row>
     <row r="47" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D47" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="70"/>
+      <c r="D47" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="67"/>
     </row>
     <row r="48" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D48" s="15" t="s">
@@ -5230,10 +5246,10 @@
       </c>
     </row>
     <row r="56" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D56" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="70"/>
+      <c r="D56" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="67"/>
     </row>
     <row r="57" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D57" s="15" t="s">
@@ -5284,10 +5300,10 @@
       </c>
     </row>
     <row r="65" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D65" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="70"/>
+      <c r="D65" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="67"/>
     </row>
     <row r="66" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D66" s="15" t="s">
@@ -5338,10 +5354,10 @@
       </c>
     </row>
     <row r="74" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D74" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="70"/>
+      <c r="D74" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="67"/>
     </row>
     <row r="75" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D75" s="15" t="s">
@@ -5392,10 +5408,10 @@
       </c>
     </row>
     <row r="83" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D83" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" s="70"/>
+      <c r="D83" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="67"/>
     </row>
     <row r="84" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D84" s="15" t="s">
@@ -5556,7 +5572,7 @@
   <dimension ref="A1:EN25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="DU26" sqref="DU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -5637,7 +5653,7 @@
   <sheetData>
     <row r="1" spans="1:144" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="54">
         <v>2</v>
@@ -5645,203 +5661,203 @@
     </row>
     <row r="2" spans="1:144" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="T2" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AV2" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BJ2" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="T2" s="71" t="s">
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BX2" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="71" t="s">
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CL2" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AV2" s="71" t="s">
+      <c r="CM2" s="68"/>
+      <c r="CN2" s="68"/>
+      <c r="CO2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+      <c r="CV2" s="68"/>
+      <c r="CW2" s="68"/>
+      <c r="CX2" s="68"/>
+      <c r="CZ2" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BJ2" s="71" t="s">
+      <c r="DA2" s="68"/>
+      <c r="DB2" s="68"/>
+      <c r="DC2" s="68"/>
+      <c r="DD2" s="68"/>
+      <c r="DE2" s="68"/>
+      <c r="DF2" s="68"/>
+      <c r="DG2" s="68"/>
+      <c r="DH2" s="68"/>
+      <c r="DI2" s="68"/>
+      <c r="DJ2" s="68"/>
+      <c r="DK2" s="68"/>
+      <c r="DL2" s="68"/>
+      <c r="DN2" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="DO2" s="68"/>
+      <c r="DP2" s="68"/>
+      <c r="DQ2" s="68"/>
+      <c r="DR2" s="68"/>
+      <c r="DS2" s="68"/>
+      <c r="DT2" s="68"/>
+      <c r="DU2" s="68"/>
+      <c r="DV2" s="68"/>
+      <c r="DW2" s="68"/>
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EB2" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="71"/>
-      <c r="BX2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CL2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CO2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="71"/>
-      <c r="CX2" s="71"/>
-      <c r="CZ2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71"/>
-      <c r="DE2" s="71"/>
-      <c r="DF2" s="71"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="71"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DN2" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="71"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
-      <c r="DV2" s="71"/>
-      <c r="DW2" s="71"/>
-      <c r="DX2" s="71"/>
-      <c r="DY2" s="71"/>
-      <c r="DZ2" s="71"/>
-      <c r="EB2" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="EC2" s="71"/>
-      <c r="ED2" s="71"/>
-      <c r="EE2" s="71"/>
-      <c r="EF2" s="71"/>
-      <c r="EG2" s="71"/>
-      <c r="EH2" s="71"/>
-      <c r="EI2" s="71"/>
-      <c r="EJ2" s="71"/>
-      <c r="EK2" s="71"/>
-      <c r="EL2" s="71"/>
-      <c r="EM2" s="71"/>
-      <c r="EN2" s="71"/>
+      <c r="EC2" s="68"/>
+      <c r="ED2" s="68"/>
+      <c r="EE2" s="68"/>
+      <c r="EF2" s="68"/>
+      <c r="EG2" s="68"/>
+      <c r="EH2" s="68"/>
+      <c r="EI2" s="68"/>
+      <c r="EJ2" s="68"/>
+      <c r="EK2" s="68"/>
+      <c r="EL2" s="68"/>
+      <c r="EM2" s="68"/>
+      <c r="EN2" s="68"/>
     </row>
     <row r="3" spans="1:144" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="72" t="s">
-        <v>106</v>
+      <c r="A3" s="69" t="s">
+        <v>177</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="AV3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="BJ3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="BX3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="CL3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="CZ3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="DN3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="EB3" s="19" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:144" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="72"/>
+      <c r="A4" s="69"/>
     </row>
     <row r="5" spans="1:144" ht="15.3" x14ac:dyDescent="0.5">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="D5" s="42" t="s">
         <v>81</v>
       </c>
@@ -6183,7 +6199,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>97</v>
@@ -6221,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="26" t="s">
         <v>97</v>
@@ -6258,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="AM8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AN8" s="26" t="s">
         <v>97</v>
@@ -6295,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="BA8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="BB8" s="26" t="s">
         <v>97</v>
@@ -6332,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="BO8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="BP8" s="26" t="s">
         <v>97</v>
@@ -6369,7 +6385,7 @@
         <v>7</v>
       </c>
       <c r="CC8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CD8" s="26" t="s">
         <v>97</v>
@@ -6406,7 +6422,7 @@
         <v>7</v>
       </c>
       <c r="CQ8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CR8" s="26" t="s">
         <v>97</v>
@@ -6443,7 +6459,7 @@
         <v>7</v>
       </c>
       <c r="DE8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="DF8" s="26" t="s">
         <v>97</v>
@@ -6480,7 +6496,7 @@
         <v>7</v>
       </c>
       <c r="DS8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="DT8" s="26" t="s">
         <v>97</v>
@@ -6517,7 +6533,7 @@
         <v>7</v>
       </c>
       <c r="EG8" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="EH8" s="26" t="s">
         <v>97</v>
@@ -10784,7 +10800,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="P21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="49">
         <v>2</v>
@@ -10799,55 +10815,55 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
       <c r="AD21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE21" s="49">
         <v>2</v>
       </c>
       <c r="AR21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AS21" s="49">
         <v>2</v>
       </c>
       <c r="BF21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="BG21" s="49">
         <v>2</v>
       </c>
       <c r="BT21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="BU21" s="49">
         <v>2</v>
       </c>
       <c r="CH21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="CI21" s="49">
         <v>2</v>
       </c>
       <c r="CV21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="CW21" s="49">
         <v>2</v>
       </c>
       <c r="DJ21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="DK21" s="49">
         <v>2</v>
       </c>
       <c r="DX21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="DY21" s="49">
         <v>2</v>
       </c>
       <c r="EL21" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="EM21" s="49">
         <v>2</v>
@@ -10861,7 +10877,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="32"/>
       <c r="P22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="49">
         <v>2</v>
@@ -10876,55 +10892,55 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
       <c r="AD22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE22" s="49">
         <v>2</v>
       </c>
       <c r="AR22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AS22" s="49">
         <v>2</v>
       </c>
       <c r="BF22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BG22" s="49">
         <v>2</v>
       </c>
       <c r="BT22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BU22" s="49">
         <v>2</v>
       </c>
       <c r="CH22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="CI22" s="49">
         <v>2</v>
       </c>
       <c r="CV22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="CW22" s="49">
         <v>2</v>
       </c>
       <c r="DJ22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="DK22" s="49">
         <v>2</v>
       </c>
       <c r="DX22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="DY22" s="49">
         <v>2</v>
       </c>
       <c r="EL22" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="EM22" s="49">
         <v>2</v>
@@ -11069,8 +11085,8 @@
   </sheetPr>
   <dimension ref="A1:EP206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="DL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DT33" sqref="DT33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
@@ -11164,10 +11180,10 @@
   <sheetData>
     <row r="1" spans="1:146" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D1" s="29"/>
       <c r="O1" s="29"/>
@@ -11200,7 +11216,7 @@
     </row>
     <row r="4" spans="1:146" x14ac:dyDescent="0.45">
       <c r="D4" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>65</v>
@@ -11277,7 +11293,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AK6" s="19" t="s">
         <v>59</v>
@@ -11364,7 +11380,7 @@
     </row>
     <row r="8" spans="1:146" x14ac:dyDescent="0.45">
       <c r="L8" s="44" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="BT8" s="20"/>
     </row>
@@ -11393,10 +11409,10 @@
       </c>
       <c r="BT9" s="20"/>
       <c r="DF9" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DG9" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="DM9" s="5" t="s">
         <v>55</v>
@@ -11413,9 +11429,7 @@
       <c r="DQ9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="DU9" s="29" t="s">
-        <v>108</v>
-      </c>
+      <c r="DU9" s="29"/>
     </row>
     <row r="10" spans="1:146" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D10" s="19" t="s">
@@ -11605,13 +11619,13 @@
         <v>47</v>
       </c>
       <c r="CQ10" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="CR10" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="CS10" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="CT10" s="15" t="s">
         <v>49</v>
@@ -11644,7 +11658,7 @@
         <v>46</v>
       </c>
       <c r="DF10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DG10" s="15" t="s">
         <v>104</v>
@@ -11678,7 +11692,7 @@
         <v>42</v>
       </c>
       <c r="DT10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DU10" s="15" t="s">
         <v>104</v>
@@ -11716,13 +11730,13 @@
         <v>38</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -11777,13 +11791,13 @@
         <v>38</v>
       </c>
       <c r="AN11" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AO11" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AQ11" s="15" t="s">
         <v>37</v>
@@ -11878,25 +11892,25 @@
         <v>34</v>
       </c>
       <c r="CQ11" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="CR11" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="CS11" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="CT11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="CU11" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="CV11" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="CW11" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CX11" s="24" t="s">
         <v>16</v>
@@ -11992,7 +12006,7 @@
         <v>28</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P12" s="45">
         <v>-6886.95</v>
@@ -12013,7 +12027,7 @@
         <v>42.06</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X12" s="45" t="s">
         <v>24</v>
@@ -12384,7 +12398,7 @@
         <v>28</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P13" s="45">
         <v>-11767.56</v>
@@ -12405,7 +12419,7 @@
         <v>0.2</v>
       </c>
       <c r="W13" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="X13" s="45" t="s">
         <v>10</v>
@@ -12701,7 +12715,7 @@
         <v>28</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P14" s="45">
         <v>-6886.95</v>
@@ -12722,7 +12736,7 @@
         <v>-41.65</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X14" s="45" t="s">
         <v>24</v>
@@ -13024,7 +13038,7 @@
         <v>28</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P15" s="45">
         <v>-6886.95</v>
@@ -13045,7 +13059,7 @@
         <v>42.06</v>
       </c>
       <c r="W15" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X15" s="45" t="s">
         <v>24</v>
@@ -13383,7 +13397,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P16" s="45">
         <v>-6886.95</v>
@@ -13404,7 +13418,7 @@
         <v>-41.65</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X16" s="45" t="s">
         <v>24</v>
@@ -13751,7 +13765,7 @@
         <v>28</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P17" s="45">
         <v>-6886.95</v>
@@ -13772,7 +13786,7 @@
         <v>42.06</v>
       </c>
       <c r="W17" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X17" s="45" t="s">
         <v>24</v>
@@ -14130,7 +14144,7 @@
         <v>28</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P18" s="45">
         <v>-6886.95</v>
@@ -14151,7 +14165,7 @@
         <v>42.06</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X18" s="45" t="s">
         <v>24</v>
@@ -14475,7 +14489,7 @@
         <v>28</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P19" s="45">
         <v>-6886.95</v>
@@ -14496,7 +14510,7 @@
         <v>-41.65</v>
       </c>
       <c r="W19" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X19" s="45" t="s">
         <v>24</v>
@@ -14806,7 +14820,7 @@
         <v>28</v>
       </c>
       <c r="O20" s="45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P20" s="45">
         <v>-6886.95</v>
@@ -14827,7 +14841,7 @@
         <v>122.85</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="X20" s="45" t="s">
         <v>24</v>
@@ -15144,7 +15158,7 @@
         <v>28</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P21" s="45">
         <v>-6886.95</v>
@@ -15165,7 +15179,7 @@
         <v>-122.44</v>
       </c>
       <c r="W21" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X21" s="45" t="s">
         <v>24</v>
@@ -15497,13 +15511,13 @@
         <v>11</v>
       </c>
       <c r="M22" s="45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N22" s="45">
         <v>28</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P22" s="45">
         <v>-6886.95</v>
@@ -15524,7 +15538,7 @@
         <v>-122.44</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="X22" s="45" t="s">
         <v>24</v>
@@ -15846,7 +15860,7 @@
     </row>
     <row r="23" spans="4:132" ht="15.6" x14ac:dyDescent="0.45">
       <c r="D23" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E23" s="57">
         <v>1.3</v>
@@ -15860,13 +15874,13 @@
         <v>12</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N23" s="45">
         <v>28</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P23" s="45">
         <v>-6886.95</v>
@@ -15887,13 +15901,13 @@
         <v>-122.44</v>
       </c>
       <c r="W23" s="45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="X23" s="45" t="s">
         <v>24</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AL23" s="14">
         <f t="shared" si="68"/>
@@ -16211,7 +16225,7 @@
     </row>
     <row r="24" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D24" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E24" s="56">
         <v>1</v>
@@ -16223,7 +16237,7 @@
       <c r="J24" s="8"/>
       <c r="Z24" s="5"/>
       <c r="AK24" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AL24" s="14">
         <f t="shared" si="68"/>
@@ -16237,7 +16251,7 @@
     </row>
     <row r="25" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D25" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E25" s="56">
         <v>1.5</v>
@@ -16249,7 +16263,7 @@
       <c r="J25" s="8"/>
       <c r="Z25" s="5"/>
       <c r="AK25" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL25" s="14">
         <f t="shared" si="68"/>
@@ -16263,7 +16277,7 @@
     </row>
     <row r="26" spans="4:132" x14ac:dyDescent="0.45">
       <c r="D26" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E26" s="56">
         <v>1</v>
@@ -16275,7 +16289,7 @@
       <c r="J26" s="8"/>
       <c r="Z26" s="5"/>
       <c r="AK26" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AL26" s="14">
         <f t="shared" si="68"/>
@@ -19176,7 +19190,7 @@
       <c r="BE206" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -19190,8 +19204,8 @@
   </sheetPr>
   <dimension ref="B2:R314"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -19208,74 +19222,74 @@
   <sheetData>
     <row r="2" spans="2:18" ht="14.4" x14ac:dyDescent="0.45">
       <c r="B2" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
       <c r="K2" s="62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
       <c r="N2" s="62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P2" s="62"/>
       <c r="Q2" s="62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="14.1" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M3" s="64"/>
       <c r="N3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R3" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
@@ -32191,21 +32205,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[{"colorTheme":"{{DataSources.ColorThemes[\"Arup\"].ColorTheme}}","disableUpdates":false,"type":"colorTheme"}],"templateName":"Arup Blank","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[{"colorTheme":"{{DataSources.ColorThemes[\"Arup\"].ColorTheme}}","disableUpdates":false,"type":"colorTheme"}],"templateName":"Arup Blank","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/Piglet/to copy/Test_piglet_input.xlsx
+++ b/Piglet/to copy/Test_piglet_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Piglet\to copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARUP\proj\piglet\0_Git_Repo\piglet_automation\Piglet\to copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5D049C-5308-46AD-8BDA-3D58495FE1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334A49FB-A8B5-49E2-8B17-3392D449C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,7 +1839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="194">
   <si>
     <t>Axial: Surface shear modulus, G(0)</t>
   </si>
@@ -2583,6 +2583,48 @@
   <si>
     <t>NOTA: possibilità di aggiungere/diminuire il numero di load cases fino a 12</t>
   </si>
+  <si>
+    <t>Info:</t>
+  </si>
+  <si>
+    <t>1: One degree of freedom, vertical loading (V) only.</t>
+  </si>
+  <si>
+    <t>2: three degrees of freedom, loading in x-z plane: V, Hx, Mxz.</t>
+  </si>
+  <si>
+    <t>3: six degrees of freedom: V, Hx, Hy, Mxz, Myz, Mxy.</t>
+  </si>
+  <si>
+    <t>-1: non-linear analysis, inputs are loads and moments</t>
+  </si>
+  <si>
+    <t>1: rigid pile-cap, inputs are loads and moments</t>
+  </si>
+  <si>
+    <t>2: rigid pile-cap, inputs are deflections and rotations</t>
+  </si>
+  <si>
+    <t>3: flexible pile-cap, inputs are loads and moments</t>
+  </si>
+  <si>
+    <t>4: flexible pile-cap, inputs are deflections and rotations</t>
+  </si>
+  <si>
+    <t>Profile Switches can be 1 or 2:</t>
+  </si>
+  <si>
+    <t>1: results contain moment profiles only.</t>
+  </si>
+  <si>
+    <t>2: results contain moment and lateral deflection profiles.</t>
+  </si>
+  <si>
+    <t>Scope can be 1, 2 or 3.</t>
+  </si>
+  <si>
+    <t>Loading Type can be 1, 2, 3, 4 or -1:</t>
+  </si>
 </sst>
 </file>
 
@@ -2956,7 +2998,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3141,15 +3183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3161,6 +3194,16 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4592,10 +4635,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4604,17 +4647,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.7" x14ac:dyDescent="0.6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="66"/>
@@ -4622,66 +4665,136 @@
       <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="70" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="70" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="70" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="70" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A9" s="74"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="72" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.5">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.5">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A19" s="72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A21" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A22" s="69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A23" s="69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A25" s="69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A26" s="69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A27" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A28" s="69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A29" s="69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A31" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A32" s="69" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4784,10 +4897,10 @@
       <c r="A2" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="33"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -4903,10 +5016,10 @@
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -4992,10 +5105,10 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="4:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -5081,10 +5194,10 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="4:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5138,10 +5251,10 @@
       </c>
     </row>
     <row r="38" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="74"/>
     </row>
     <row r="39" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D39" s="15" t="s">
@@ -5192,10 +5305,10 @@
       </c>
     </row>
     <row r="47" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="67"/>
+      <c r="E47" s="74"/>
     </row>
     <row r="48" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D48" s="15" t="s">
@@ -5246,10 +5359,10 @@
       </c>
     </row>
     <row r="56" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="67"/>
+      <c r="E56" s="74"/>
     </row>
     <row r="57" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D57" s="15" t="s">
@@ -5300,10 +5413,10 @@
       </c>
     </row>
     <row r="65" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D65" s="67" t="s">
+      <c r="D65" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="67"/>
+      <c r="E65" s="74"/>
     </row>
     <row r="66" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D66" s="15" t="s">
@@ -5354,10 +5467,10 @@
       </c>
     </row>
     <row r="74" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D74" s="67" t="s">
+      <c r="D74" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="67"/>
+      <c r="E74" s="74"/>
     </row>
     <row r="75" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D75" s="15" t="s">
@@ -5408,10 +5521,10 @@
       </c>
     </row>
     <row r="83" spans="4:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="D83" s="67" t="s">
+      <c r="D83" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="67"/>
+      <c r="E83" s="74"/>
     </row>
     <row r="84" spans="4:5" ht="15.3" x14ac:dyDescent="0.45">
       <c r="D84" s="15" t="s">
@@ -5571,7 +5684,7 @@
   </sheetPr>
   <dimension ref="A1:EN25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="DU26" sqref="DU26"/>
     </sheetView>
   </sheetViews>
@@ -5664,162 +5777,162 @@
         <v>125</v>
       </c>
       <c r="B2"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="T2" s="68" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="T2" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
       <c r="AG2" s="53"/>
-      <c r="AH2" s="68" t="s">
+      <c r="AH2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AV2" s="68" t="s">
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AV2" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BJ2" s="68" t="s">
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BJ2" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BX2" s="68" t="s">
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
+      <c r="BP2" s="75"/>
+      <c r="BQ2" s="75"/>
+      <c r="BR2" s="75"/>
+      <c r="BS2" s="75"/>
+      <c r="BT2" s="75"/>
+      <c r="BU2" s="75"/>
+      <c r="BV2" s="75"/>
+      <c r="BX2" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
-      <c r="CJ2" s="68"/>
-      <c r="CL2" s="68" t="s">
+      <c r="BY2" s="75"/>
+      <c r="BZ2" s="75"/>
+      <c r="CA2" s="75"/>
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="75"/>
+      <c r="CD2" s="75"/>
+      <c r="CE2" s="75"/>
+      <c r="CF2" s="75"/>
+      <c r="CG2" s="75"/>
+      <c r="CH2" s="75"/>
+      <c r="CI2" s="75"/>
+      <c r="CJ2" s="75"/>
+      <c r="CL2" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="68"/>
-      <c r="CO2" s="68"/>
-      <c r="CP2" s="68"/>
-      <c r="CQ2" s="68"/>
-      <c r="CR2" s="68"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="68"/>
-      <c r="CU2" s="68"/>
-      <c r="CV2" s="68"/>
-      <c r="CW2" s="68"/>
-      <c r="CX2" s="68"/>
-      <c r="CZ2" s="68" t="s">
+      <c r="CM2" s="75"/>
+      <c r="CN2" s="75"/>
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="75"/>
+      <c r="CW2" s="75"/>
+      <c r="CX2" s="75"/>
+      <c r="CZ2" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="DA2" s="68"/>
-      <c r="DB2" s="68"/>
-      <c r="DC2" s="68"/>
-      <c r="DD2" s="68"/>
-      <c r="DE2" s="68"/>
-      <c r="DF2" s="68"/>
-      <c r="DG2" s="68"/>
-      <c r="DH2" s="68"/>
-      <c r="DI2" s="68"/>
-      <c r="DJ2" s="68"/>
-      <c r="DK2" s="68"/>
-      <c r="DL2" s="68"/>
-      <c r="DN2" s="68" t="s">
+      <c r="DA2" s="75"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="75"/>
+      <c r="DD2" s="75"/>
+      <c r="DE2" s="75"/>
+      <c r="DF2" s="75"/>
+      <c r="DG2" s="75"/>
+      <c r="DH2" s="75"/>
+      <c r="DI2" s="75"/>
+      <c r="DJ2" s="75"/>
+      <c r="DK2" s="75"/>
+      <c r="DL2" s="75"/>
+      <c r="DN2" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="DO2" s="68"/>
-      <c r="DP2" s="68"/>
-      <c r="DQ2" s="68"/>
-      <c r="DR2" s="68"/>
-      <c r="DS2" s="68"/>
-      <c r="DT2" s="68"/>
-      <c r="DU2" s="68"/>
-      <c r="DV2" s="68"/>
-      <c r="DW2" s="68"/>
-      <c r="DX2" s="68"/>
-      <c r="DY2" s="68"/>
-      <c r="DZ2" s="68"/>
-      <c r="EB2" s="68" t="s">
+      <c r="DO2" s="75"/>
+      <c r="DP2" s="75"/>
+      <c r="DQ2" s="75"/>
+      <c r="DR2" s="75"/>
+      <c r="DS2" s="75"/>
+      <c r="DT2" s="75"/>
+      <c r="DU2" s="75"/>
+      <c r="DV2" s="75"/>
+      <c r="DW2" s="75"/>
+      <c r="DX2" s="75"/>
+      <c r="DY2" s="75"/>
+      <c r="DZ2" s="75"/>
+      <c r="EB2" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="EC2" s="68"/>
-      <c r="ED2" s="68"/>
-      <c r="EE2" s="68"/>
-      <c r="EF2" s="68"/>
-      <c r="EG2" s="68"/>
-      <c r="EH2" s="68"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="68"/>
-      <c r="EK2" s="68"/>
-      <c r="EL2" s="68"/>
-      <c r="EM2" s="68"/>
-      <c r="EN2" s="68"/>
+      <c r="EC2" s="75"/>
+      <c r="ED2" s="75"/>
+      <c r="EE2" s="75"/>
+      <c r="EF2" s="75"/>
+      <c r="EG2" s="75"/>
+      <c r="EH2" s="75"/>
+      <c r="EI2" s="75"/>
+      <c r="EJ2" s="75"/>
+      <c r="EK2" s="75"/>
+      <c r="EL2" s="75"/>
+      <c r="EM2" s="75"/>
+      <c r="EN2" s="75"/>
     </row>
     <row r="3" spans="1:144" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="76" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -5854,10 +5967,10 @@
       </c>
     </row>
     <row r="4" spans="1:144" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="69"/>
+      <c r="A4" s="76"/>
     </row>
     <row r="5" spans="1:144" ht="15.3" x14ac:dyDescent="0.5">
-      <c r="A5" s="69"/>
+      <c r="A5" s="76"/>
       <c r="D5" s="42" t="s">
         <v>81</v>
       </c>
